--- a/DOWNLOADS/PRODUTOS/base_produtos.xlsx
+++ b/DOWNLOADS/PRODUTOS/base_produtos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietr\OneDrive\.vscode\arte_\DOWNLOADS\PRODUTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/PRODUTOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCCAD8A-C83F-40B8-9559-DD9B1B8311BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{5BCCAD8A-C83F-40B8-9559-DD9B1B8311BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D909BB7-BBE9-4769-ACC4-D75AB2B9D12E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95041F68-D58D-4F0D-AEF9-BBFEBA2F9C2B}"/>
+    <workbookView xWindow="28704" yWindow="-4380" windowWidth="16392" windowHeight="14136" xr2:uid="{95041F68-D58D-4F0D-AEF9-BBFEBA2F9C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4027" uniqueCount="2182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="2203">
   <si>
     <t>Palheta Sax Saxofone Alto Mib Eb Vandoren Paris Java 2 1/2</t>
   </si>
@@ -8330,6 +8330,556 @@
   </si>
   <si>
     <t>CAIXA 15X14 C/ APOIO DE PERNA (GUERRA)</t>
+  </si>
+  <si>
+    <t>PCTOP</t>
+  </si>
+  <si>
+    <t>Projetor Pctop Pc4000 Wuxga 4000 Lumens 1920x1080 Led Branco - Pc4000</t>
+  </si>
+  <si>
+    <t>Descrição     PROJETOR MULTIMÍDIA PCTOP 4000 LUMENS - PC4000
+Part Number     PC4000
+EAN     7908544502901
+Cor     Branco
+Brilho     4000 LÚMENS
+Contraste     10000:1
+Cores     1.07 bilhão
+Tecnologia     LCD IPS-Super TFT
+Lâmpada     LED
+Resolução Nativa     1920x1080
+Proporção da Tela     4:3 / 16:9
+Tamanho da Projeção     45~200 polegadas
+Distância da Projeção     1,7~7.0m
+Ajuste de Foco     Manual
+Ruído em Operação     35dB
+Potência do Alto Falante     10W
+Tensão de Entrada     100~240V
+Consumo     &lt;150W
+Consumo (stand-by)     &lt;0.5W
+Conectores     HDMI x2 / USB x2 / VGA / Audio Output / Receptor IR
+Formato de Vídeo     RM / RMVB / AVI / MKV / WMV / MP4
+Formato de Áudio     MP3 / WMA / AAC
+Formato de Imagem     BMP/JPG/PNG/GIF
+Dimensões      31,8 x 26 x 10 cm
+Peso     2,78Kg
+Conteúdo da Embalagem     Projetor, Cabo AC, Guia Rápido, Controle remoto</t>
+  </si>
+  <si>
+    <t>Projetor Pctop Pc2000 Xga 2000 Lumens 1280 X720 Led Preto - Pc2000</t>
+  </si>
+  <si>
+    <t>Descrição     PROJETOR MULTIMÍDIA PCTOP 2000 LUMENS - PC2000
+Part Number     PC2000
+EAN     7908544502895
+Cor     Preto
+Brilho     2000 lúmens
+Contraste     1000:1
+Cores     1,07 bilhão
+Tecnologia     IPS-Super TFT
+Lâmpada     LED
+Resolução Nativa     1280 x 720
+Proporção da Tela     4:3 / 16:9
+Tamanho da Projeção     32 ~ 150 polegadas
+Distância da Projeção     1,0 ~ 3,2m
+Ajuste de Foco     Manual
+Ruído em Operação     35dB
+Potência do Alto Falante     10W x2
+Tensão de Entrada     100~240V
+Consumo     60W
+Consumo (stand-by)     &lt;0.5W
+Conectores     HDMI / USB/ Audio Output x 1 / IR receiver x 2 / VGA
+Formato de Vídeo     RM / RMVB / AVI / MKV / WMV / MP4
+Formato de Áudio     MP3 / WMA / AAC
+Formato de Imagem     JPEG / BMP / PNG / GIF
+Dimensões      22 x 16 x 7 cm
+Peso     1,05Kg
+Conteúdo da Embalagem     Projetor, Cabo de força AC, Controle Remoto, Guia Rápido</t>
+  </si>
+  <si>
+    <t>Projetor Epson Powerlite Fh52+ Wuxga 4000 Lumens 1920x1080 - V11h978021</t>
+  </si>
+  <si>
+    <t>Epson</t>
+  </si>
+  <si>
+    <t>Especificações
+• Brilhante e com cores vivas: 4.000 lumens de brilho em cores (saída de luz colorida)¹ e 4.000 lumens de brilho em branco (saída de luz branca).
+• HDMI: Conecte dispositivos de forma rápida por meio da porta HDMI.
+• Full HD: Resolução HD para assistir aos seus canais HD favoritos. Veja esportes, shows, filmes e muito mais!
+• Correção de efeito trapézio automática: Ajusta vertical e horizontalmente para alcançar facilmente uma imagem perfeitamente retangular.
+• Vida útil da lâmpada: Lâmpada E-TORL de alta eficiência dura até 5.500 horas em modo normal e até 12.000 horas em modo ECO.
+________________________________________
+Características Ecológicas
+• Chip 3LCD que economiza energia
+• Lâmpada E-TORL que economiza energia
+• Baixo consumo de energia, de 0,3 W no modo de espera
+• Desenvolvido para reciclagem fácil
+• De acordo com as normas RoHS
+________________________________________
+Especificações do Projetor
+• Sistema de projeção: Tecnologia Epson 3LCD de 3 Chips
+• Modo de projeção: Frontal / Posterior / Teto
+• Painel LCD: 0,61 polegada (C2fine)
+• Método de projeção: Matrix ativa TFT de polissilício
+• Número de pixels: 2.073.600 pixels (1.920 px x 1.080 px) x 3
+• Brilho em cores - Saída de luz colorida: 4.000 lumens
+• Brilho em branco - Saída de luz branca: 4.000 lumens
+• Razão de aspecto: 16:9
+• Resolução nativa: Full HD
+• Tipo de lâmpada: 230W UHE
+• Duração da lâmpada: 5.500 horas (normal) / 12.000 horas (Eco)
+• Correção de Keystone: Vertical: -30° +30 / Horizontal: -30° +30°
+• Razão de contraste: Até 16.000:1
+• Reprodução de cor: Até 1 bilhão de cores
+________________________________________
+Lente de Projeção
+• Tipo: Zoom Óptico (Manual) / Foco (Manual)
+• Número F: 1,51-1,91
+• Tamanho da tela: 30" a 300" (0,87 m - 14,41 m)
+• Distância Focal: 18,2 mm - 29,2 mm
+• Razão de zoom: 1 - 1,6
+• Tampa da lente: Slide lens shutter
+________________________________________
+Conectividade do Projetor
+• Entrada para computador x 1 D-sub15 pin
+• RCA Vídeo In Amarelo x 1
+• HDMI x 2
+• Entrada Áudio RCA (Branco x1, Vermelho x1)
+• Usb Tipo A (para módulo wireless)
+• Usb Tipo B (para atualização de Firmware)
+• Módulo wireless integrado
+• Wi-Fi Certified™ Miracast
+________________________________________
+Geral
+• Temperatura de uso:5°C a 40°C &lt;41 °f a 104°f&gt;
+• Segurança: Kensington Lock , Trava de segurança
+________________________________________
+Detalhes do Projetor
+• Alto-falante: Mono: 16W x 1
+• Ruído do ventilador: 28 dB / 37 dB
+________________________________________
+Energia
+• Voltagem: 100V - 240V AC +/- 10%, 50Hz/60 Hz
+• Consumo de energia: 100V-120V: 345 (Normal) - 235 (Eco) / 220V-240V: 327 (Normal) - 225 (Eco)
+________________________________________
+Itens Inclusos
+• Projetor
+• Controle remoto
+• Pilhas para o controle remoto, AA x 2
+• Cabo de energia (1,8 m)
+• Cabo para computador (1,8 m)
+• Guia de instalação
+• Garantia
+________________________________________
+Dimensões e Peso
+• Dimensão L x A x P: 309 x 90 x 282 mm
+• Peso: 3,1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Projetor Epson Powerlite E20 Xga 3400 Lumens 1024x768 - V11h981020</t>
+  </si>
+  <si>
+    <t>Características do Produto:
+Faça projeções incríveis em sala de aula, numa faixa de preço acessível, com o projetor PowerLite E20.
+Com a avançada tecnologia 3LCD, esse projetor ultrabrilhante de 3.400 lumens¹ entrega imagens vibrantes e realistas.
+Possui o Melhor Brilho em Cores² de Sua Categoria e resolução nativa XGA.
+Desenvolvido especificamente para ambientes de sala de aula, o PowerLite E20 aumenta o engajamento e enriquece os planos de aula graças à conectividade HDMI e ao alto-falante integrado de 5W.
+Feito para durar, esse projetor oferece longa vida útil de lâmpada — até 12.000 horas no modo ECO³ —, além de ter instalação conveniente e versatilidade de posicionamento, o que permite projetar facilmente a partir de todos os ângulos da sala de aula.
+Especificações:
+-Tecnologia 3LCD de 3 chips para o melhor brilho em cores de sua categoria: 3.400 lumens de brilho em cores e 3.400 lumens de brilho em branco.
+-Configuração fácil e versatilidade de posicionamento: Zoom digital de 1.0-1.35x, ±30 graus de correção keystone horizontal e vertical, e slider horizontal.
+-Resolução nativa XGA e performance 4:3: para imagens vibrantes e coloridas.
+-Conectividade HDMI: obtenha qualidade de vídeo e áudio com um único cabo.
+-Lâmpada de longa duração a um preço acessível: até 12.000 horas em Modo ECO.
+-Alto-falante integrado de 5W: para projeções cativantes.
+Especificações Técnicas:
+-Sistema de projeção: Tecnologia 3LCD de 3 chips
+-Modo de projeção: Frontal / Traseiro / Teto
+-Método de projeção: Matriz ativa TFT de polissilício
+-Número de pixels: 786,432 dots (1024 x 768) x 3
+-Brilho em cores - Saída de luz colorida: 3.400 lumens
+-Brilho em branco - Saída de luz branca: 3.400 lumens
+-Razão de aspecto: 4:3
+-Resolução nativa: 1024 x 768 (XGA)
+-Redimensionar: 1280 x 800 (WXGA), 1280 x 960 (SXGA2), 1280 x 1024 (SXGA3), 1366 x 768 (WXGA60-3), 1400 x 1050 (SXGA+), 1440 x 900 (WXGA+)
+-Tipo de lâmpada: 210 W UHE
+-Duração da lâmpada: Modo ECO: Até 12.000 horas / Modo Normal: Até 6.000 horas
+-Alcance do Throw-Ratio: 1.44 (Zoom: Wide), 1.95 (Zoom: Tele)
+-Distância de projeção/ tamanho da tela: 30" a 350" (0,76 a 10,34 m)
+-Correção de Keystone: Automático: Vertical: ±30 graus / Slider: Horizontal: ±30 graus
+-Plug and Play USB: Projetor compatível com computadores PC e Mac.
+-Razão de contraste: Até 15.000:1
+-Reprodução de cor: Até 1,07 bilhão de cores
+Geral:
+-Temperatura: 5 ° a 35 °C
+-Peso: 2,7 kg
+-Segurança: Trava Kensington® / Cadeado / Barra de segurança
+Energia:
+-Voltagem: 100 – 240VAC ±10%, 50 / 60Hz AC
+-Consumo de energia: Modo ECO: 235 W / Modo Normal: 345 W / Em Espera: Máx. 2W
+Itens Inclusos:
+-Projetor PowerLite E20
+-Cabo de energia
+-Cabo HDMI (1,8 m)
+-Controle remoto do projetor
+-Pilhas
+-CD com softwares
+-Folha de instalação rápida
+-Cartão de garantia
+Dimensões e Peso:
+-Dimensões (L x A x P): 302 x 87 x 249mm
+-Peso: 2,7kg</t>
+  </si>
+  <si>
+    <t>Projetor Epson Laser Epiqvision Ef-21 Full Hd 1000 Lumens 1920x1080 - V11hb35020</t>
+  </si>
+  <si>
+    <t>Especificações
+• Projetor Multimídia EpiqVision EF-21
+• Cor: Branco
+________________________________________
+Especificações Técnicas
+• Sistema de projeção: Epson 3LCD Laser
+• Arquitetura: 3-Chips
+• Modo de projeção: Frontal / traseiro / teto
+• Método de condução: Matriz ativa TFT de polissilício 0,62”
+• Brilho em cores: 1.000 Lúmens (qualificado por IDMS)
+• Brilho em branco: 1.000 Lúmens (qualificado por ISO)
+• Taxa de proporção: 16:9
+• Resolução nativa: 1920 x 1080 (Full HD)
+• Suporte: HDR HDR10 / HLG
+• Reprodução de Cores: até 16,77 milhões de cores
+• Processamento de cor: Completo de 8-bits
+• Tipo de fonte de iluminação: Diodo laser
+• Vida útil da fonte de iluminação: 20.000 horas (modo normal/ silencioso)
+• Alto-falantes integrados: Dois estéreo de 5 W com Dolby Audio®
+• Tamanho da imagem: 30" - 150" (zoom: largura)
+• Distância de projeção: 63 - 337 cm
+________________________________________
+Lente de Projeção
+• Tipo zoom/focagem: (automática)
+• Proporção de zoom: 1,0 – 1,82 (zoom digital)
+• Número: F 2,0
+• Distância focal: 13,9 mm
+• Distância de projeção: (16:9) 1,33m para uma tela de 60"
+________________________________________
+Ajuste Automático de imagem
+• Os seguintes recursos estão disponíveis para tamanho de tela de 30" a 100" ou distância de projeção de 25cm a 88cm
+• Correção de Keystone e Prevenção de Obstáculos automática
+• Ângulo horizontal ±20 graus
+• Ângulo vertical ±20 graus
+• Ângulo de inclinação ±10 graus
+• Faixa de prevenção de obstáculos =1/1,35 fora do intervalo de projeção
+• Ajuste de tela Sim
+• Foco Digital Automático/Manual
+________________________________________
+Outros
+• Modos de cor: Dinâmico, vívido, natural, cinema, personalizado
+• Proteção Smart Eye: Sim, desativada durante a correção de Keystone
+• Sinal de entrada: 1 x HDMI (HDCP 2,3)
+• Sinal de saída de áudio: 1x Stereo Mini
+• Temperatura de funcionamento: 5 ºC a 35 ºC
+• Umidade: 20% - 80% / Sem condensação
+• Tensão da fonte de alimentação: 100 - 240 V AC +/- 10%, 50/60 Hz
+• Consumo de energia: 100-120v; Modo Eco: 80 W; Modo normal: 109 W; 220-120v; Modo Eco: 78 W; Modo normal: 106 W
+• Intervalo de funcionamento: 0m a 3.000m
+• Recomenda-se que ative o modo Alta Altitude a partir dos 1500 m
+• Ruído do ventilador: 19 – 23 dB
+• USB Tipo-A: 1x (para dispositivo de armazenamento em massa; USB, microfone, HID, webcam)
+• USB Tipo-B: 1x mini (para serviço)
+• Segurança: Preparado para cadeado e cabo de segurança
+________________________________________
+Google TV™4 Integrado
+• Wi-Fi sem fio de 2,4 GHz e 5 GHz IEEE 802,11 a, b, g, n, ac
+• Bluetooth® 5,1 Classe 2
+• Resolução de vídeo até 1920 x 1080 @60 fps 4:4:4 cor
+________________________________________
+Características Ecológicas
+• Atende às normas RoHS: sim
+________________________________________
+Conteúdo da Embalagem
+• Projetor EF21
+• Cabo de alimentação
+• 1 Controle remoto
+• 2 pilhas AAA
+• Guia de instalação rápida</t>
+  </si>
+  <si>
+    <t>Projetor Epson Co W01 Wxga 3000 Lumens 1280x800 - V11ha86020</t>
+  </si>
+  <si>
+    <t>Descrição do Produto
+• Modelo: Epson EpiqVision Flex CO-W01
+• Tipo de dispositivo: Projetor portátil 3LCD
+________________________________________
+Imagem
+• Tecnologia de projeção: 3LCD
+• Resolução nativa: WXGA (1280 x 800)
+• Proporção da imagem: 16:10 (compatível com 4:3 e 16:9)
+• Reprodução de cores: Até 16,77 milhões de cores
+________________________________________
+Brilho
+• Brilho em branco: 3.000 lúmens (IDMS 15.4)
+• Brilho em cores: 3.000 lúmens (ISO 21118)
+________________________________________
+Fonte de Iluminação
+• Tipo: Lâmpada 188 W UHE
+• Vida útil da lâmpada:
+• Até 6.000 horas (modo normal)
+• Até 12.000 horas (modo ECO)
+________________________________________
+Suporte de Sinal de Vídeo
+• Resoluções suportadas: 480i, 480p, 576i, 576p, 720p, 1080i, 1080p
+________________________________________
+Áudio
+• Alto-falante integrado: Mono (5 W)
+________________________________________
+Energia
+• Tensão de alimentação: 100–240 VCA ±10%, 50/60 Hz
+• Consumo de energia:
+• 284 W (modo normal)
+• 223 W (modo ECO)
+• 0,5 W (modo espera/comunicação desativada)
+________________________________________
+Dimensões e Peso
+• Sem pés: 295 × 82 × 211 mm
+• Com pés: 295 × 87 × 211 mm
+• Peso: 2,4 kg</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>Drone Dji Neo Fly More Combo (Sem Tela) Br - Dji051</t>
+  </si>
+  <si>
+    <t>Alcance o estrelato:
+Com apenas 135 g, o DJI Neo é o drone mais leve e compacto da DJI até o momento². Decole e pouse na palma da sua mão com muito mais facilidade e sem a necessidade de um controle remoto.
+Leve e portátil: apenas 135 g¹
+Decolagem e pouso na palma da mão³
+Rastreamento de alvos com IA e QuickShots
+Várias opções de controle4
+Vídeo em 4K com estabilização superior
+Protetores de hélices com proteção completa
+Da sua mão para o céu:
+decolagem na palma da mão
+O DJI Neo decola e pousa com graciosidade na palma da sua mão5. Basta apertar o botão de Modo no seu drone, selecionar o tipo de gravação que você deseja e pronto: o Neo faz o resto automaticamente, capturando imagens impressionantes sem precisar de um controle remoto.
+Seja o centro das atenções:
+rastreamento de alvos com IA
+Seja ao pedalar, andar de skate ou durante uma caminhada, o DJI Neo acompanha você como seu fotógrafo particular. Esteja sempre em destaque graças aos algoritmos de Inteligência Artificial (IA) que conseguem enquadrar o alvo e seguí-lo com muito mais fluidez e facilidade.
+Desperte sua criatividade com os QuickShots
+Com um simples toque, o DJI Neo faz gravações impressionantes sozinho. São seis modos de gravações inteligentes5, proporcionando uma ampla variedade de ângulos para otimizar suas gravações criativas.
+Múltiplos métodos de controle
+Além das gravações áreas sem controle remoto, o DJI Neo pode ser vinculado ao aplicativo DJI Fly, a controles remotos, RC Motion, DJI Goggles e muito mais! Otimize o controle de voo e da câmera do seu jeito.
+Controle por voz6/7: “hey, Fly!”. Desperte o aplicativo DJI Fly com essas palavras para habilitar o controle por voz e pilotar o DJI Neo com comandos de voo verbais.
+Controle de aplicativos móveis6: conecte o seu DJI Neo ao seu smartphone via wi-fi, eliminando a necessidade de um controle remoto adicional. Use os controles virtuais do app DJI Fly, com alcance de até 50 metros8, e defina o ângulo e a distância de rastreamento.
+Controle via CR9: quando vinculado ao DJI RC-N3, o DJI Neo alcança uma distância máxima de transmissão de vídeo de até 10 km10. Controle a câmera com flexibilidade, usando os tradicionais pinos do controle remoto, quando precisar fazer gravações profissionais.
+Controle de movimentos imersivo9: o DJI Neo pode ser vinculado aos DJI Goggles 3, RC Motion 3 ou controle remoto DJI FPV 3, entregando uma distância de transmissão de vídeo de até 10 km10.
+Qualidade de imagem superior
+O DJI Neo conta com um sensor de imagens de 1/2” para capturar fotos de 12 MP. Combinado aos poderosos algoritmos de estabilização da DJI, gera vídeos mais estáveis e em 4K UHD diretamente da câmera11.
+Crie com facilidade
+Armazenamento interno de 22 GB: o DJI Neo pode armazenar até 40 minutos de vídeo em 4K/30 fps ou 55 minutos de vídeo em 1080p/60 fps, permitindo manter todas as suas memórias armazenadas.
+Gravação de áudio sem cabos: após ser vinculado ao aplicativo DJI Fly, o DJI Neo grava áudio do microfone integrado de seu celular ou usando o Microfone DJI 213, que pode ser conectado ao seu celular via Bluetooth. O aplicativo DJI Fly elimina automaticamente o ruído das hélices e mescla a trilha de áudio com a gravação, garantindo um som limpo mesmo ao gravar vídeos em ângulos baixos.
+QuickTransfer em alta velocidade: após conectar-se ao seu celular via wi-fi, as gravações feitas pelo DJI Neo podem ser transferidas rapidamente para o aplicativo DJI Fly, sem a necessidade de cabos.
+Glamour com um só toque: dê um trato na aparência e inspire confiança adicionando Efeitos de Glamour. Basta importar as gravações para o aplicativo DJI Fly e começar.
+Edição facilitada: o aplicativo DJI Fly oferece uma ampla seleção de modelos e efeitos sonoros para edição rápida e fácil. Crie e compartilhe vídeos de forma eficiente sem precisar baixar as gravações para editá-las, economizando espaço de armazenamento em seu celular.
+Voos estáveis, bateria com longa duração
+Usando um sistema de posicionamento visual infravermelho e monocular, o DJI Neo consegue pairar de forma estável no ar, mantendo a estabilidade mesmo em condições com vento de nível 4. Suporta ainda Retorno à Base (RTH) automático para operações convenientes e sem preocupações.
+Tempo de voo de até 18 min.
+Com até 18 minutos de tempo de voo14, o DJI Neo pode realizar mais de 20 viagens seguidas15 de ida e volta da palma de sua mão, documentando os pequenos momentos da vida cotidiana com seu design elegante que não compromete o tempo de voo.
+Carregamento direto para agilidade de uso
+Conecte a aeronave diretamente a uma fonte de energia usando um cabo de dados Tipo C para praticidade de carregamento. Além disso, o carregador, com múltiplas entradas de duas vias do DJI Neo16, pode carregar três baterias simultaneamente17, aumentando tanto a velocidade quanto a eficiência de carregamento.
+Grave vídeos quando quiser
+O DJI Neo Combo Fly More inclui a aeronave, um controle remoto RC-N3, três Baterias Inteligentes, um carregador com múltiplas entradas de duas vias e muito mais!
+Ficha Técnica:
+Características
+Detecção de Obstáculos
+Inferior
+Peso do Produto
+642g
+Certificado Anatel
+06574-24-07248
+Cor
+CINZA
+Largura do Produto
+10.25cm
+Altura do Produto
+4.85cm
+Comprimento do Produto
+15.7cm
+Na caixa:
+1x Drone DJI Neo
+3x Baterias
+1x Controle remoto DJI RC-N3 (sem tela)
+1x Cabo do controle remoto USB-C
+1x Hub de carregamento com compartilhamento de carga
+3x pares de hélices DJI Neo (2 no drone)
+1x Par de protetores de hélices
+4x Parafusos das hélices
+1x Protetor do gimbal
+1x Cabo de carregamento Tipo C</t>
+  </si>
+  <si>
+    <t>Drone Dji Mini 3 Standard (Sem Tela) Br - Dji038</t>
+  </si>
+  <si>
+    <t>Descrição:
+Voe alto
+O DJI Mini 3 é um drone com câmera supercompacto, leve e pronto para aventuras. Conta com duração prolongada da bateria, gravando vídeos incríveis em 4K HDR capazes de capturar cores e detalhes vibrantes, além de recursos como gravação vertical, criando cenas incríveis para as redes sociais. Seja ao passear pela praia, em uma viagem de fim de semana ou de um mês, esteja sempre pronto para capturar cada detalhe.
+Muito além do comum
+Leve a empolgação onde quer que vá
+Com um design dobrável e pesando menos de 249 g, coloque o DJI Mini 3 em sua mochila e leve-o em sua próxima aventura em questão de segundos.
+Transforme sua imaginação em imagens vívidas
+Dê asas às cores
+Grave em 4K HDR com cores realistas, tanto de dia como de noite. A câmera do Mini 3 está equipada com um sensor CMOS de 1/1,3 polegadas com ISO nativo duplo e tecnologia HDR de nível de chip.
+Durante o dia, capture detalhes de destaque e sombra para obter resultados visuais mais coloridos com maior profundidade. Continue a capturar de forma clara e vívida, mesmo quando o dia se transforma em noite.
+Está tudo nos detalhes
+A abertura f/1.7 da câmera e os píxels 4 em 1 maiores de 2,4 µm registram detalhes nítidos e apresentam imagens excepcionais mesmo em cenários de pouca luz.
+E com o zoom de 4x, você pode explorar mais os locais antes de fotografar.
+Horizontal e vertical: ambos épicos
+Seja uma árvore imponente ou um prédio alto, componha suas fotos com mais flexibilidade e mantenha tudo enquadrado.
+O design inovador de gimbal oferece à câmera mais opções com uma inclinação de grande ângulo.
+E com uma mudança rápida para gravação vertical, até fotos casuais ficam impressionantes e estão prontas para serem compartilhadas nas redes sociais.
+Impacto máximo, esforço mínimo
+Com apenas um toque, obtenha fotos avançadas em segundos com QuickShots como Dronie, Órbita, Hélice, Foguete e Boomerang.
+Você pode enviar os resultados para o seu dispositivo móvel para salvar ou compartilhar com a mesma rapidez com o QuickTransfer.
+Com o QuickTransfer, suas criações estarão instantaneamente prontas para serem compartilhadas, economizando tempo e esforço.
+Equipado com a transmissão de vídeo digital DJI O2, o Mini 3 possui forte capacidade anti-interferência e um alcance máximo de transmissão de 10 km, permitindo que você explore e capture com maior clareza.
+Veja tudo
+Veja mais a cada voo. A função Panorama oferece suporte às fotos panorâmicas de ângulo amplo. Já as funções 180° e Esfera reúnem uma gama impressionante de cenários em cada quadro.
+RTH
+A função de Retorno à Base (RTH) inclui o RTH Inteligente, RTH de bateria fraca e RTH à prova de falhas. O que auxilia a aeronave a retornar automaticamente ao seu ponto de partida em situações como perda de sinais ou bateria fraca.
+Voos estacionários precisos
+A aeronave combina o GNSS com o sistema visual descendente e o sistema de detecção por infravermelho para pairar de forma estável e precisa, para que possa voar com confiança.
+DJI Care Refresh
+Desfrute de voos com maior liberdade e criatividade.
+Ficha Técnica:
+Características:
+Resolução da Câmera
+Foto: 48 MP
+Vídeo: 4K/30 fps
+Cor
+PRETO
+Peso do Produto
+634g
+Largura do Produto
+36.2cm
+Altura do Produto
+7cm
+Comprimento do Produto
+25.1cm
+Duração da Bateria
+Até 38 minutos
+Detecção de Obstáculos
+1 direção: Inferior
+Velocidade Máxima (Km/h)
+57,6 km/h
+Modos Inteligentes
+Gravação vertical, Panorâmica, Quickshots e QuickTransfer
+Zoom
+4K: 2x
+2.7K: 3x
+1080p: 4x
+Nível de Usuário de Drone
+Drone para Iniciante
+Aplicações
+Uso Recreativo e Comercial
+Versão
+Standard
+Na caixa:
+1x DJI Mini 3
+1x Controle remoto DJI RC-N1
+1x Bateria DJI Mini 3 (38 min.)
+6x Parafusos
+1x Chave de fenda
+3x Pares de hélices (2 no drone)
+1x Cabo conector tipo C para controle remoto
+1x Cabo conector Lightning para controle remoto
+1x cabo conector micro USB para controle remoto
+1x Cabo de carregamento tipo C
+1x Protetor de gimbal</t>
+  </si>
+  <si>
+    <t>Drone Dji Neo Standard Br - Dji050</t>
+  </si>
+  <si>
+    <t>DRONE DJI NEO STANDARD - DJI050
+Conheça o DJI Neo Standard, um drone que revoluciona a maneira de capturar imagens aéreas. Com sua câmera 4K e um avançado sistema de estabilização, você obtém vídeos e fotos com nitidez impressionante. Seu design leve e compacto facilita o transporte, enquanto sua bateria inteligente garante até 18 minutos de voo, oferecendo tempo suficiente para registrar todos os momentos especiais. Seja você iniciante ou especialista, o DJI Neo Standard, com suas funções inteligentes e controle intuitivo, é a escolha ideal. Registre seus momentos mais especiais com uma qualidade incomparável.
+Principais características:
+•Decolagem e pouso na palma da mão;
+•Rastreamento de alvos com IA;
+•Vídeos em 4K com estabilização superior;
+•Controle por voz e aplicativo móvel.
+Leveza e Portabilidade: O DJI Neo Standard é um dos drones mais leves da DJI, com apenas 135 gramas. Seu formato compacto permite decolagens e pousos na palma da mão, ideal para vlogs e gravações pessoais.
+Rastreamento Inteligente com Inteligência Artificial: Com a inteligência artificial incorporada, o DJI Neo Standard oferece um rastreamento preciso de alvos. Perfeito para atividades dinâmicas como esportes ou aventuras ao ar livre.
+Gravações em 4K com Estabilização Avançada: O DJI Neo Standard grava vídeos em 4K, garantindo imagens claras e estáveis. Seu sensor de 1/2- e a estabilização mecânica minimizam tremores e mantêm a qualidade da imagem, mesmo em alta velocidade e em condições de vento.
+Resistência às Condições Climáticas: Além de resistir ao vento de nível 4, o DJI Neo Standard é projetado para operar em ambientes com umidade moderada ou poeira, embora não seja resistente à água. Isso significa que deve ser usado com cuidado em condições de chuva ou poeira intensa.
+Retorno Automático à Base (RTH): Não se preocupe com o retorno do drone. Ao decolar da palma da mão ou usar o controle pelo aplicativo móvel, o DJI Neo Standard retornará automaticamente ao ponto de partida após completar seu percurso.
+Especificações técnicas:
+NEO
+Peso de decolagem: aprox.135 g
+Dimensões: 13 × 15,7 × 4,85 cm (C×L×A)
+Velocidade máxima de subida
+0,5 m/s (modo Cine)
+2 m/s (modo Normal)
+3 m/s (modo Sport)
+Velocidade máxima de descida
+0,5 m/s (modo Cine)
+2 m/s (modo Normal)
+2 m/s (modo Sport)
+Altitude máxima de decolagem: 2000 m
+Tempo máximo de voo: Aprox. 18 minutos
+Distância máxima de voo: 7 km
+Resistência máxima à velocidade do vento: 8 m/s (Nível 4)
+Câmera:
+Sensor de imagem: sensor de imagem de 1/2 polegada
+Lente
+FOV: 117,6°
+Formato equivalente: 14 mm
+Tamanho máximo da imagem
+Foto de 12 MP
+4000×3000 (4:3)
+4000×2256 (16:9)
+Formato de foto: JPEG
+Resolução de vídeo
+EIS desligado
+4K (4:3): 3840×2880 a 30 fps
+1080p (4:3): 1440×1080 a 60/50/30 fps
+EIS ligado
+4K (16:9): 3840×2160 a 30 fps
+1080p (16:9): 1920×1080 a 60/50/30 fps
+Formato de vídeo: MP4
+Taxa de bits máxima de vídeo: 75 Mbps
+Bateria:
+Capacidade: 1435 mAh
+Peso Aprox. 45 g
+Energia: 10,5 Wh
+Tensão nominal: 7,3 V
+Tensão máxima de carga: 8,6 V
+Tipo: íon de lítio
+Carregador:
+Carregador recomendado
+Carregador portátil DJI 65W
+Carregador USB Power Delivery
+Hub de carregamento de bateria:
+Entrada
+5 V, 3 A
+9 V, 3 A
+12 V, 3 A
+15 V, 3 A
+20 V, 3 A
+Saída (carregamento): 5 V, 2 A
+Conteúdo da Embalagem:
+1 × Drone DJI Neo
+1 × Bateria de Voo Inteligente DJI Neo - Não inclui controle.
+1 × Par de Hélices DJI Neo
+1 × Par de Protetores de Hélices
+4 × Parafusos das Hélices
+1 × Protetor da Câmera
+1 × Cabo de Carregamento USB-C
+* Para acessar as informações completas desse produto, acesse: https://www.dji.com/neo/specs</t>
   </si>
 </sst>
 </file>
@@ -8494,37 +9044,34 @@
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8533,8 +9080,11 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8872,10 +9422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD36D8D4-A0CC-4CB7-99F9-673D3A99686D}">
-  <dimension ref="A1:D1352"/>
+  <dimension ref="A1:D1361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="E295" sqref="E295"/>
+    <sheetView tabSelected="1" topLeftCell="A1361" workbookViewId="0">
+      <selection activeCell="E1361" sqref="E1361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11421,4720 +11971,4720 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>1636</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="5" t="s">
         <v>1636</v>
       </c>
-      <c r="D182" s="7">
+      <c r="D182" s="6">
         <v>147.46</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>1637</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="5" t="s">
         <v>1637</v>
       </c>
-      <c r="D183" s="7">
+      <c r="D183" s="6">
         <v>144.03</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>1638</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="5" t="s">
         <v>1638</v>
       </c>
-      <c r="D184" s="7">
+      <c r="D184" s="6">
         <v>42.45</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>1639</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="5" t="s">
         <v>1639</v>
       </c>
-      <c r="D185" s="7">
+      <c r="D185" s="6">
         <v>42.45</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>1640</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="5" t="s">
         <v>1640</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="6">
         <v>42.45</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="D187" s="7">
+      <c r="D187" s="6">
         <v>42.45</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>1642</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="5" t="s">
         <v>1642</v>
       </c>
-      <c r="D188" s="7">
+      <c r="D188" s="6">
         <v>16.52</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="D189" s="7">
+      <c r="D189" s="6">
         <v>11.7</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="5" t="s">
         <v>1644</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" s="5" t="s">
         <v>1644</v>
       </c>
-      <c r="D190" s="7">
+      <c r="D190" s="6">
         <v>11.23</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="5" t="s">
         <v>1645</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="5" t="s">
         <v>1645</v>
       </c>
-      <c r="D191" s="7">
+      <c r="D191" s="6">
         <v>17.89</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="5" t="s">
         <v>1646</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="5" t="s">
         <v>1646</v>
       </c>
-      <c r="D192" s="7">
+      <c r="D192" s="6">
         <v>167.29</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="D193" s="9">
+      <c r="D193" s="8">
         <v>262.39</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="7" t="s">
         <v>1648</v>
       </c>
-      <c r="C194" s="8" t="s">
+      <c r="C194" s="7" t="s">
         <v>1648</v>
       </c>
-      <c r="D194" s="9">
+      <c r="D194" s="8">
         <v>326.60000000000002</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>1649</v>
       </c>
-      <c r="C195" s="8" t="s">
+      <c r="C195" s="7" t="s">
         <v>1649</v>
       </c>
-      <c r="D195" s="9">
+      <c r="D195" s="8">
         <v>380.66</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="5" t="s">
         <v>1650</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="5" t="s">
         <v>1650</v>
       </c>
-      <c r="D196" s="7">
+      <c r="D196" s="6">
         <v>334.91</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="C197" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="D197" s="9">
+      <c r="D197" s="8">
         <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>1652</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="5" t="s">
         <v>1652</v>
       </c>
-      <c r="D198" s="7">
+      <c r="D198" s="6">
         <v>474.26</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>1653</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="5" t="s">
         <v>1653</v>
       </c>
-      <c r="D199" s="7">
+      <c r="D199" s="6">
         <v>494.85</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="D200" s="9">
+      <c r="D200" s="8">
         <v>179.53</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="7" t="s">
         <v>1655</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="7" t="s">
         <v>1655</v>
       </c>
-      <c r="D201" s="9">
+      <c r="D201" s="8">
         <v>188.98</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="D202" s="7">
+      <c r="D202" s="6">
         <v>151.51</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="7" t="s">
         <v>1657</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="7" t="s">
         <v>1657</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="8">
         <v>167.43</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="7" t="s">
         <v>1658</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="7" t="s">
         <v>1658</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="8">
         <v>168.9</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="7" t="s">
         <v>1659</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="7" t="s">
         <v>1659</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="8">
         <v>241.69</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="D206" s="7">
+      <c r="D206" s="6">
         <v>158.21</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="7" t="s">
         <v>1661</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="7" t="s">
         <v>1661</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="8">
         <v>174.13</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="5" t="s">
         <v>1662</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C208" s="5" t="s">
         <v>1662</v>
       </c>
-      <c r="D208" s="7">
+      <c r="D208" s="6">
         <v>171.8</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="7" t="s">
         <v>1663</v>
       </c>
-      <c r="C209" s="8" t="s">
+      <c r="C209" s="7" t="s">
         <v>1663</v>
       </c>
-      <c r="D209" s="9">
+      <c r="D209" s="8">
         <v>190.43</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B210" s="18" t="s">
+      <c r="B210" s="17" t="s">
         <v>2181</v>
       </c>
-      <c r="C210" s="8" t="s">
+      <c r="C210" s="7" t="s">
         <v>1664</v>
       </c>
-      <c r="D210" s="9">
+      <c r="D210" s="8">
         <v>247.02</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="5" t="s">
         <v>1665</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" s="5" t="s">
         <v>1665</v>
       </c>
-      <c r="D211" s="7">
+      <c r="D211" s="6">
         <v>108.57</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="5" t="s">
         <v>1666</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C212" s="5" t="s">
         <v>1666</v>
       </c>
-      <c r="D212" s="7">
+      <c r="D212" s="6">
         <v>814.09</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="D213" s="7">
+      <c r="D213" s="6">
         <v>968.39</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="5" t="s">
         <v>1668</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" s="5" t="s">
         <v>1668</v>
       </c>
-      <c r="D214" s="7">
+      <c r="D214" s="6">
         <v>972.48</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="D215" s="7">
+      <c r="D215" s="6">
         <v>810.17</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="D216" s="7">
+      <c r="D216" s="6">
         <v>958.46</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="5" t="s">
         <v>1671</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="5" t="s">
         <v>1671</v>
       </c>
-      <c r="D217" s="7">
+      <c r="D217" s="6">
         <v>995.49</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="5" t="s">
         <v>1672</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" s="5" t="s">
         <v>1672</v>
       </c>
-      <c r="D218" s="7">
+      <c r="D218" s="6">
         <v>625.16</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="5" t="s">
         <v>1673</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" s="5" t="s">
         <v>1673</v>
       </c>
-      <c r="D219" s="7">
+      <c r="D219" s="6">
         <v>2328</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="5" t="s">
         <v>1674</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="5" t="s">
         <v>1674</v>
       </c>
-      <c r="D220" s="7">
+      <c r="D220" s="6">
         <v>2368.52</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="5" t="s">
         <v>1675</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" s="5" t="s">
         <v>1675</v>
       </c>
-      <c r="D221" s="7">
+      <c r="D221" s="6">
         <v>2428.8200000000002</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>1676</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="7" t="s">
         <v>1676</v>
       </c>
-      <c r="D222" s="9">
+      <c r="D222" s="8">
         <v>237.06</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="7" t="s">
         <v>1677</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="C223" s="7" t="s">
         <v>1677</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="8">
         <v>236.7</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="7" t="s">
         <v>1678</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="C224" s="7" t="s">
         <v>1678</v>
       </c>
-      <c r="D224" s="9">
+      <c r="D224" s="8">
         <v>351.85</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="5" t="s">
         <v>1679</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C225" s="5" t="s">
         <v>1679</v>
       </c>
-      <c r="D225" s="7">
+      <c r="D225" s="6">
         <v>1664.63</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C226" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="D226" s="7">
+      <c r="D226" s="6">
         <v>16.89</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="5" t="s">
         <v>1681</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C227" s="5" t="s">
         <v>1681</v>
       </c>
-      <c r="D227" s="7">
+      <c r="D227" s="6">
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C228" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="D228" s="7">
+      <c r="D228" s="6">
         <v>20.83</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>1683</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C229" s="5" t="s">
         <v>1683</v>
       </c>
-      <c r="D229" s="7">
+      <c r="D229" s="6">
         <v>16.25</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C230" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="D230" s="7">
+      <c r="D230" s="6">
         <v>17.34</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="5" t="s">
         <v>1685</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="5" t="s">
         <v>1685</v>
       </c>
-      <c r="D231" s="7">
+      <c r="D231" s="6">
         <v>19.05</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="5" t="s">
         <v>1686</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C232" s="5" t="s">
         <v>1686</v>
       </c>
-      <c r="D232" s="7">
+      <c r="D232" s="6">
         <v>21.87</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="5" t="s">
         <v>1687</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C233" s="5" t="s">
         <v>1687</v>
       </c>
-      <c r="D233" s="7">
+      <c r="D233" s="6">
         <v>17.2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="5" t="s">
         <v>1688</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C234" s="5" t="s">
         <v>1688</v>
       </c>
-      <c r="D234" s="7">
+      <c r="D234" s="6">
         <v>17.940000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C235" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="D235" s="7">
+      <c r="D235" s="6">
         <v>20.86</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="5" t="s">
         <v>1690</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C236" s="5" t="s">
         <v>1690</v>
       </c>
-      <c r="D236" s="7">
+      <c r="D236" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="5" t="s">
         <v>1691</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C237" s="5" t="s">
         <v>1691</v>
       </c>
-      <c r="D237" s="7">
+      <c r="D237" s="6">
         <v>16.25</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="5" t="s">
         <v>1692</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="5" t="s">
         <v>1692</v>
       </c>
-      <c r="D238" s="7">
+      <c r="D238" s="6">
         <v>18.29</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="5" t="s">
         <v>1693</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C239" s="5" t="s">
         <v>1693</v>
       </c>
-      <c r="D239" s="7">
+      <c r="D239" s="6">
         <v>20.86</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="5" t="s">
         <v>1694</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C240" s="5" t="s">
         <v>1694</v>
       </c>
-      <c r="D240" s="7">
+      <c r="D240" s="6">
         <v>21.41</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="C241" s="5" t="s">
         <v>1695</v>
       </c>
-      <c r="D241" s="7">
+      <c r="D241" s="6">
         <v>23.14</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C242" s="5" t="s">
         <v>1696</v>
       </c>
-      <c r="D242" s="7">
+      <c r="D242" s="6">
         <v>26.54</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="5" t="s">
         <v>1697</v>
       </c>
-      <c r="C243" s="6" t="s">
+      <c r="C243" s="5" t="s">
         <v>1697</v>
       </c>
-      <c r="D243" s="7">
+      <c r="D243" s="6">
         <v>30.42</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="s">
+      <c r="A244" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C244" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="D244" s="7">
+      <c r="D244" s="6">
         <v>33.049999999999997</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="5" t="s">
         <v>1699</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C245" s="5" t="s">
         <v>1699</v>
       </c>
-      <c r="D245" s="7">
+      <c r="D245" s="6">
         <v>17.350000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="5" t="s">
         <v>1700</v>
       </c>
-      <c r="C246" s="6" t="s">
+      <c r="C246" s="5" t="s">
         <v>1700</v>
       </c>
-      <c r="D246" s="7">
+      <c r="D246" s="6">
         <v>92.17</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="5" t="s">
         <v>1701</v>
       </c>
-      <c r="C247" s="6" t="s">
+      <c r="C247" s="5" t="s">
         <v>1701</v>
       </c>
-      <c r="D247" s="7">
+      <c r="D247" s="6">
         <v>67.16</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="5" t="s">
         <v>1702</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C248" s="5" t="s">
         <v>1702</v>
       </c>
-      <c r="D248" s="7">
+      <c r="D248" s="6">
         <v>69.55</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="5" t="s">
         <v>1703</v>
       </c>
-      <c r="C249" s="6" t="s">
+      <c r="C249" s="5" t="s">
         <v>1703</v>
       </c>
-      <c r="D249" s="7">
+      <c r="D249" s="6">
         <v>52.75</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="9" t="s">
         <v>1704</v>
       </c>
-      <c r="C250" s="10" t="s">
+      <c r="C250" s="9" t="s">
         <v>1704</v>
       </c>
-      <c r="D250" s="11">
+      <c r="D250" s="10">
         <v>358.57</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="7" t="s">
         <v>1705</v>
       </c>
-      <c r="C251" s="8" t="s">
+      <c r="C251" s="7" t="s">
         <v>1705</v>
       </c>
-      <c r="D251" s="9">
+      <c r="D251" s="8">
         <v>225.9</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="5" t="s">
+      <c r="A252" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="5" t="s">
         <v>1706</v>
       </c>
-      <c r="C252" s="6" t="s">
+      <c r="C252" s="5" t="s">
         <v>1706</v>
       </c>
-      <c r="D252" s="7">
+      <c r="D252" s="6">
         <v>258.43</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="C253" s="10" t="s">
+      <c r="C253" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="D253" s="11">
+      <c r="D253" s="10">
         <v>389</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="B254" s="11" t="s">
         <v>1708</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="C254" s="11" t="s">
         <v>1708</v>
       </c>
-      <c r="D254" s="13">
+      <c r="D254" s="12">
         <v>219</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B255" s="12" t="s">
+      <c r="B255" s="11" t="s">
         <v>1709</v>
       </c>
-      <c r="C255" s="12" t="s">
+      <c r="C255" s="11" t="s">
         <v>1709</v>
       </c>
-      <c r="D255" s="13">
+      <c r="D255" s="12">
         <v>239.29</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="5" t="s">
         <v>1710</v>
       </c>
-      <c r="C256" s="6" t="s">
+      <c r="C256" s="5" t="s">
         <v>1710</v>
       </c>
-      <c r="D256" s="7">
+      <c r="D256" s="6">
         <v>4686.53</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="C257" s="6" t="s">
+      <c r="C257" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="D257" s="7">
+      <c r="D257" s="6">
         <v>1252.23</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="C258" s="6" t="s">
+      <c r="C258" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="D258" s="7">
+      <c r="D258" s="6">
         <v>1252.23</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="C259" s="6" t="s">
+      <c r="C259" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="D259" s="7">
+      <c r="D259" s="6">
         <v>1252.23</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="5" t="s">
         <v>1714</v>
       </c>
-      <c r="C260" s="6" t="s">
+      <c r="C260" s="5" t="s">
         <v>1714</v>
       </c>
-      <c r="D260" s="7">
+      <c r="D260" s="6">
         <v>1252.23</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="C261" s="6" t="s">
+      <c r="C261" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="D261" s="7">
+      <c r="D261" s="6">
         <v>1259.3599999999999</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="5" t="s">
         <v>1716</v>
       </c>
-      <c r="C262" s="6" t="s">
+      <c r="C262" s="5" t="s">
         <v>1716</v>
       </c>
-      <c r="D262" s="7">
+      <c r="D262" s="6">
         <v>1259.3599999999999</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" s="5" t="s">
         <v>1717</v>
       </c>
-      <c r="C263" s="6" t="s">
+      <c r="C263" s="5" t="s">
         <v>1717</v>
       </c>
-      <c r="D263" s="7">
+      <c r="D263" s="6">
         <v>1259.3599999999999</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="5" t="s">
         <v>1718</v>
       </c>
-      <c r="C264" s="6" t="s">
+      <c r="C264" s="5" t="s">
         <v>1718</v>
       </c>
-      <c r="D264" s="7">
+      <c r="D264" s="6">
         <v>1259.3599999999999</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="C265" s="6" t="s">
+      <c r="C265" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="D265" s="7">
+      <c r="D265" s="6">
         <v>63.72</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="5" t="s">
         <v>1720</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C266" s="5" t="s">
         <v>1720</v>
       </c>
-      <c r="D266" s="7">
+      <c r="D266" s="6">
         <v>34.64</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B267" s="14" t="s">
+      <c r="B267" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="C267" s="14" t="s">
+      <c r="C267" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="D267" s="7">
+      <c r="D267" s="6">
         <v>42.25</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B268" s="14" t="s">
+      <c r="B268" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="C268" s="14" t="s">
+      <c r="C268" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="D268" s="7">
+      <c r="D268" s="6">
         <v>54.27</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="13" t="s">
         <v>1723</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="C269" s="13" t="s">
         <v>1723</v>
       </c>
-      <c r="D269" s="7">
+      <c r="D269" s="6">
         <v>54.28</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="13" t="s">
         <v>1724</v>
       </c>
-      <c r="C270" s="14" t="s">
+      <c r="C270" s="13" t="s">
         <v>1724</v>
       </c>
-      <c r="D270" s="7">
+      <c r="D270" s="6">
         <v>72.27</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B271" s="14" t="s">
+      <c r="B271" s="13" t="s">
         <v>1725</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="C271" s="13" t="s">
         <v>1725</v>
       </c>
-      <c r="D271" s="7">
+      <c r="D271" s="6">
         <v>73.459999999999994</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B272" s="14" t="s">
+      <c r="B272" s="13" t="s">
         <v>1726</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C272" s="13" t="s">
         <v>1726</v>
       </c>
-      <c r="D272" s="7">
+      <c r="D272" s="6">
         <v>79.09</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B273" s="14" t="s">
+      <c r="B273" s="13" t="s">
         <v>1727</v>
       </c>
-      <c r="C273" s="14" t="s">
+      <c r="C273" s="13" t="s">
         <v>1727</v>
       </c>
-      <c r="D273" s="7">
+      <c r="D273" s="6">
         <v>139.81</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B274" s="14" t="s">
+      <c r="B274" s="13" t="s">
         <v>1728</v>
       </c>
-      <c r="C274" s="14" t="s">
+      <c r="C274" s="13" t="s">
         <v>1728</v>
       </c>
-      <c r="D274" s="7">
+      <c r="D274" s="6">
         <v>161.63</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B275" s="14" t="s">
+      <c r="B275" s="13" t="s">
         <v>1729</v>
       </c>
-      <c r="C275" s="14" t="s">
+      <c r="C275" s="13" t="s">
         <v>1729</v>
       </c>
-      <c r="D275" s="7">
+      <c r="D275" s="6">
         <v>182.34</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B276" s="14" t="s">
+      <c r="B276" s="13" t="s">
         <v>1730</v>
       </c>
-      <c r="C276" s="14" t="s">
+      <c r="C276" s="13" t="s">
         <v>1730</v>
       </c>
-      <c r="D276" s="7">
+      <c r="D276" s="6">
         <v>219.15</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B277" s="14" t="s">
+      <c r="B277" s="13" t="s">
         <v>1731</v>
       </c>
-      <c r="C277" s="14" t="s">
+      <c r="C277" s="13" t="s">
         <v>1731</v>
       </c>
-      <c r="D277" s="7">
+      <c r="D277" s="6">
         <v>248.55</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B278" s="14" t="s">
+      <c r="B278" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="C278" s="14" t="s">
+      <c r="C278" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="D278" s="7">
+      <c r="D278" s="6">
         <v>16.37</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B279" s="14" t="s">
+      <c r="B279" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="C279" s="14" t="s">
+      <c r="C279" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="D279" s="7">
+      <c r="D279" s="6">
         <v>35.56</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B280" s="14" t="s">
+      <c r="B280" s="13" t="s">
         <v>1734</v>
       </c>
-      <c r="C280" s="14" t="s">
+      <c r="C280" s="13" t="s">
         <v>1734</v>
       </c>
-      <c r="D280" s="7">
+      <c r="D280" s="6">
         <v>9.93</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B281" s="14" t="s">
+      <c r="B281" s="13" t="s">
         <v>1735</v>
       </c>
-      <c r="C281" s="14" t="s">
+      <c r="C281" s="13" t="s">
         <v>1735</v>
       </c>
-      <c r="D281" s="7">
+      <c r="D281" s="6">
         <v>10.66</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="13" t="s">
         <v>1736</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="C282" s="13" t="s">
         <v>1736</v>
       </c>
-      <c r="D282" s="7">
+      <c r="D282" s="6">
         <v>11.08</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B283" s="14" t="s">
+      <c r="B283" s="13" t="s">
         <v>1737</v>
       </c>
-      <c r="C283" s="14" t="s">
+      <c r="C283" s="13" t="s">
         <v>1737</v>
       </c>
-      <c r="D283" s="7">
+      <c r="D283" s="6">
         <v>11.78</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B284" s="14" t="s">
+      <c r="B284" s="13" t="s">
         <v>1738</v>
       </c>
-      <c r="C284" s="14" t="s">
+      <c r="C284" s="13" t="s">
         <v>1738</v>
       </c>
-      <c r="D284" s="7">
+      <c r="D284" s="6">
         <v>12.78</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B285" s="14" t="s">
+      <c r="B285" s="13" t="s">
         <v>1739</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="C285" s="13" t="s">
         <v>1739</v>
       </c>
-      <c r="D285" s="7">
+      <c r="D285" s="6">
         <v>15.22</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" s="5" t="s">
         <v>1740</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C286" s="5" t="s">
         <v>1740</v>
       </c>
-      <c r="D286" s="7">
+      <c r="D286" s="6">
         <v>43.37</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="5" t="s">
         <v>1741</v>
       </c>
-      <c r="C287" s="6" t="s">
+      <c r="C287" s="5" t="s">
         <v>1741</v>
       </c>
-      <c r="D287" s="7">
+      <c r="D287" s="6">
         <v>47.58</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="C288" s="6" t="s">
+      <c r="C288" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="D288" s="7">
+      <c r="D288" s="6">
         <v>48.43</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="5" t="s">
         <v>1743</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C289" s="5" t="s">
         <v>1743</v>
       </c>
-      <c r="D289" s="7">
+      <c r="D289" s="6">
         <v>52.1</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="5" t="s">
         <v>1744</v>
       </c>
-      <c r="C290" s="6" t="s">
+      <c r="C290" s="5" t="s">
         <v>1744</v>
       </c>
-      <c r="D290" s="7">
+      <c r="D290" s="6">
         <v>57.63</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="5" t="s">
         <v>1745</v>
       </c>
-      <c r="C291" s="6" t="s">
+      <c r="C291" s="5" t="s">
         <v>1745</v>
       </c>
-      <c r="D291" s="7">
+      <c r="D291" s="6">
         <v>63.14</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" s="5" t="s">
+      <c r="A292" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="5" t="s">
         <v>1746</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C292" s="5" t="s">
         <v>1746</v>
       </c>
-      <c r="D292" s="7">
+      <c r="D292" s="6">
         <v>65.67</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="5" t="s">
         <v>1747</v>
       </c>
-      <c r="C293" s="6" t="s">
+      <c r="C293" s="5" t="s">
         <v>1747</v>
       </c>
-      <c r="D293" s="7">
+      <c r="D293" s="6">
         <v>86.83</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" s="5" t="s">
+      <c r="A294" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" s="5" t="s">
         <v>1748</v>
       </c>
-      <c r="C294" s="6" t="s">
+      <c r="C294" s="5" t="s">
         <v>1748</v>
       </c>
-      <c r="D294" s="7">
+      <c r="D294" s="6">
         <v>38.17</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" s="5" t="s">
         <v>1749</v>
       </c>
-      <c r="C295" s="6" t="s">
+      <c r="C295" s="5" t="s">
         <v>1749</v>
       </c>
-      <c r="D295" s="7">
+      <c r="D295" s="6">
         <v>39.729999999999997</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B296" s="14" t="s">
+      <c r="B296" s="13" t="s">
         <v>1750</v>
       </c>
-      <c r="C296" s="14" t="s">
+      <c r="C296" s="13" t="s">
         <v>1750</v>
       </c>
-      <c r="D296" s="7">
+      <c r="D296" s="6">
         <v>10.37</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B297" s="14" t="s">
+      <c r="B297" s="13" t="s">
         <v>1751</v>
       </c>
-      <c r="C297" s="14" t="s">
+      <c r="C297" s="13" t="s">
         <v>1751</v>
       </c>
-      <c r="D297" s="7">
+      <c r="D297" s="6">
         <v>11.01</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B298" s="14" t="s">
+      <c r="B298" s="13" t="s">
         <v>1752</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="C298" s="13" t="s">
         <v>1752</v>
       </c>
-      <c r="D298" s="7">
+      <c r="D298" s="6">
         <v>11.33</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B299" s="14" t="s">
+      <c r="B299" s="13" t="s">
         <v>1753</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="C299" s="13" t="s">
         <v>1753</v>
       </c>
-      <c r="D299" s="7">
+      <c r="D299" s="6">
         <v>12.74</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B300" s="14" t="s">
+      <c r="B300" s="13" t="s">
         <v>1754</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="C300" s="13" t="s">
         <v>1754</v>
       </c>
-      <c r="D300" s="7">
+      <c r="D300" s="6">
         <v>13.99</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B301" s="14" t="s">
+      <c r="B301" s="13" t="s">
         <v>1755</v>
       </c>
-      <c r="C301" s="14" t="s">
+      <c r="C301" s="13" t="s">
         <v>1755</v>
       </c>
-      <c r="D301" s="7">
+      <c r="D301" s="6">
         <v>16.18</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B302" s="14" t="s">
+      <c r="B302" s="13" t="s">
         <v>1756</v>
       </c>
-      <c r="C302" s="14" t="s">
+      <c r="C302" s="13" t="s">
         <v>1756</v>
       </c>
-      <c r="D302" s="7">
+      <c r="D302" s="6">
         <v>31.64</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B303" s="14" t="s">
+      <c r="B303" s="13" t="s">
         <v>1757</v>
       </c>
-      <c r="C303" s="14" t="s">
+      <c r="C303" s="13" t="s">
         <v>1757</v>
       </c>
-      <c r="D303" s="7">
+      <c r="D303" s="6">
         <v>37.9</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B304" s="14" t="s">
+      <c r="B304" s="13" t="s">
         <v>1758</v>
       </c>
-      <c r="C304" s="14" t="s">
+      <c r="C304" s="13" t="s">
         <v>1758</v>
       </c>
-      <c r="D304" s="7">
+      <c r="D304" s="6">
         <v>41.29</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B305" s="14" t="s">
+      <c r="B305" s="13" t="s">
         <v>1759</v>
       </c>
-      <c r="C305" s="14" t="s">
+      <c r="C305" s="13" t="s">
         <v>1759</v>
       </c>
-      <c r="D305" s="7">
+      <c r="D305" s="6">
         <v>45.54</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B306" s="14" t="s">
+      <c r="B306" s="13" t="s">
         <v>1760</v>
       </c>
-      <c r="C306" s="14" t="s">
+      <c r="C306" s="13" t="s">
         <v>1760</v>
       </c>
-      <c r="D306" s="7">
+      <c r="D306" s="6">
         <v>53.74</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B307" s="14" t="s">
+      <c r="B307" s="13" t="s">
         <v>1761</v>
       </c>
-      <c r="C307" s="14" t="s">
+      <c r="C307" s="13" t="s">
         <v>1761</v>
       </c>
-      <c r="D307" s="7">
+      <c r="D307" s="6">
         <v>8.56</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B308" s="14" t="s">
+      <c r="B308" s="13" t="s">
         <v>1762</v>
       </c>
-      <c r="C308" s="14" t="s">
+      <c r="C308" s="13" t="s">
         <v>1762</v>
       </c>
-      <c r="D308" s="7">
+      <c r="D308" s="6">
         <v>9.4</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" s="5" t="s">
+      <c r="A309" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B309" s="5" t="s">
         <v>1763</v>
       </c>
-      <c r="C309" s="6" t="s">
+      <c r="C309" s="5" t="s">
         <v>1763</v>
       </c>
-      <c r="D309" s="7">
+      <c r="D309" s="6">
         <v>51.35</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" s="5" t="s">
+      <c r="A310" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B310" s="5" t="s">
         <v>1764</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C310" s="5" t="s">
         <v>1764</v>
       </c>
-      <c r="D310" s="7">
+      <c r="D310" s="6">
         <v>55.54</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" s="5" t="s">
+      <c r="A311" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="B311" s="5" t="s">
         <v>1765</v>
       </c>
-      <c r="C311" s="6" t="s">
+      <c r="C311" s="5" t="s">
         <v>1765</v>
       </c>
-      <c r="D311" s="7">
+      <c r="D311" s="6">
         <v>57.79</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="5" t="s">
         <v>1766</v>
       </c>
-      <c r="C312" s="6" t="s">
+      <c r="C312" s="5" t="s">
         <v>1766</v>
       </c>
-      <c r="D312" s="7">
+      <c r="D312" s="6">
         <v>61.61</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" s="5" t="s">
+      <c r="A313" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="5" t="s">
         <v>1767</v>
       </c>
-      <c r="C313" s="6" t="s">
+      <c r="C313" s="5" t="s">
         <v>1767</v>
       </c>
-      <c r="D313" s="7">
+      <c r="D313" s="6">
         <v>66.81</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="5" t="s">
         <v>1768</v>
       </c>
-      <c r="C314" s="6" t="s">
+      <c r="C314" s="5" t="s">
         <v>1768</v>
       </c>
-      <c r="D314" s="7">
+      <c r="D314" s="6">
         <v>75.599999999999994</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" s="5" t="s">
+      <c r="A315" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B315" s="5" t="s">
         <v>1769</v>
       </c>
-      <c r="C315" s="6" t="s">
+      <c r="C315" s="5" t="s">
         <v>1769</v>
       </c>
-      <c r="D315" s="7">
+      <c r="D315" s="6">
         <v>82.79</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" s="5" t="s">
+      <c r="A316" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B316" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="C316" s="6" t="s">
+      <c r="C316" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="D316" s="7">
+      <c r="D316" s="6">
         <v>109.51</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" s="5" t="s">
+      <c r="A317" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="B317" s="5" t="s">
         <v>1771</v>
       </c>
-      <c r="C317" s="6" t="s">
+      <c r="C317" s="5" t="s">
         <v>1771</v>
       </c>
-      <c r="D317" s="7">
+      <c r="D317" s="6">
         <v>44.47</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" s="5" t="s">
+      <c r="A318" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="5" t="s">
         <v>1772</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C318" s="5" t="s">
         <v>1772</v>
       </c>
-      <c r="D318" s="7">
+      <c r="D318" s="6">
         <v>47.55</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B319" s="6" t="s">
+      <c r="B319" s="5" t="s">
         <v>1773</v>
       </c>
-      <c r="C319" s="6" t="s">
+      <c r="C319" s="5" t="s">
         <v>1773</v>
       </c>
-      <c r="D319" s="7">
+      <c r="D319" s="6">
         <v>26.27</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="B320" s="5" t="s">
         <v>1774</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="C320" s="5" t="s">
         <v>1774</v>
       </c>
-      <c r="D320" s="7">
+      <c r="D320" s="6">
         <v>134.16</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="B321" s="5" t="s">
         <v>1775</v>
       </c>
-      <c r="C321" s="6" t="s">
+      <c r="C321" s="5" t="s">
         <v>1775</v>
       </c>
-      <c r="D321" s="7">
+      <c r="D321" s="6">
         <v>134.16</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="5" t="s">
         <v>1776</v>
       </c>
-      <c r="C322" s="6" t="s">
+      <c r="C322" s="5" t="s">
         <v>1776</v>
       </c>
-      <c r="D322" s="7">
+      <c r="D322" s="6">
         <v>134.16</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="C323" s="6" t="s">
+      <c r="C323" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="D323" s="7">
+      <c r="D323" s="6">
         <v>134.16</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B324" s="5" t="s">
         <v>1778</v>
       </c>
-      <c r="C324" s="6" t="s">
+      <c r="C324" s="5" t="s">
         <v>1778</v>
       </c>
-      <c r="D324" s="7">
+      <c r="D324" s="6">
         <v>142.25</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="9" t="s">
         <v>1779</v>
       </c>
-      <c r="C325" s="10" t="s">
+      <c r="C325" s="9" t="s">
         <v>1779</v>
       </c>
-      <c r="D325" s="11">
+      <c r="D325" s="10">
         <v>227.66</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" s="5" t="s">
+    <row r="326" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B326" s="15" t="s">
+      <c r="B326" s="14" t="s">
         <v>1780</v>
       </c>
-      <c r="C326" s="15" t="s">
+      <c r="C326" s="14" t="s">
         <v>1780</v>
       </c>
-      <c r="D326" s="16">
+      <c r="D326" s="15">
         <v>326.73</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" s="5" t="s">
+      <c r="A327" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B327" s="6" t="s">
+      <c r="B327" s="5" t="s">
         <v>1781</v>
       </c>
-      <c r="C327" s="6" t="s">
+      <c r="C327" s="5" t="s">
         <v>1781</v>
       </c>
-      <c r="D327" s="7">
+      <c r="D327" s="6">
         <v>102.21</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B328" s="5" t="s">
         <v>1782</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C328" s="5" t="s">
         <v>1782</v>
       </c>
-      <c r="D328" s="7">
+      <c r="D328" s="6">
         <v>102.21</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" s="5" t="s">
+      <c r="A329" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B329" s="5" t="s">
         <v>1783</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C329" s="5" t="s">
         <v>1783</v>
       </c>
-      <c r="D329" s="7">
+      <c r="D329" s="6">
         <v>102.21</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B330" s="5" t="s">
         <v>1784</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="C330" s="5" t="s">
         <v>1784</v>
       </c>
-      <c r="D330" s="7">
+      <c r="D330" s="6">
         <v>102.21</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B331" s="5" t="s">
         <v>1785</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C331" s="5" t="s">
         <v>1785</v>
       </c>
-      <c r="D331" s="7">
+      <c r="D331" s="6">
         <v>112.94</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B332" s="6" t="s">
+      <c r="B332" s="5" t="s">
         <v>1786</v>
       </c>
-      <c r="C332" s="6" t="s">
+      <c r="C332" s="5" t="s">
         <v>1786</v>
       </c>
-      <c r="D332" s="7">
+      <c r="D332" s="6">
         <v>112.94</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" s="5" t="s">
+      <c r="A333" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B333" s="5" t="s">
         <v>1787</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C333" s="5" t="s">
         <v>1787</v>
       </c>
-      <c r="D333" s="7">
+      <c r="D333" s="6">
         <v>112.94</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B334" s="6" t="s">
+      <c r="B334" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C334" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="D334" s="7">
+      <c r="D334" s="6">
         <v>112.94</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" s="5" t="s">
+      <c r="A335" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B335" s="6" t="s">
+      <c r="B335" s="5" t="s">
         <v>1789</v>
       </c>
-      <c r="C335" s="6" t="s">
+      <c r="C335" s="5" t="s">
         <v>1789</v>
       </c>
-      <c r="D335" s="7">
+      <c r="D335" s="6">
         <v>125.89</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" s="5" t="s">
+      <c r="A336" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B336" s="9" t="s">
         <v>1790</v>
       </c>
-      <c r="C336" s="10" t="s">
+      <c r="C336" s="9" t="s">
         <v>1790</v>
       </c>
-      <c r="D336" s="11">
+      <c r="D336" s="10">
         <v>155.46</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337" s="5" t="s">
+      <c r="A337" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B337" s="6" t="s">
+      <c r="B337" s="5" t="s">
         <v>1791</v>
       </c>
-      <c r="C337" s="6" t="s">
+      <c r="C337" s="5" t="s">
         <v>1791</v>
       </c>
-      <c r="D337" s="7">
+      <c r="D337" s="6">
         <v>124.32</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338" s="5" t="s">
+      <c r="A338" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="9" t="s">
         <v>1792</v>
       </c>
-      <c r="C338" s="10" t="s">
+      <c r="C338" s="9" t="s">
         <v>1792</v>
       </c>
-      <c r="D338" s="11">
+      <c r="D338" s="10">
         <v>152.68</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339" s="5" t="s">
+      <c r="A339" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="9" t="s">
         <v>1793</v>
       </c>
-      <c r="C339" s="10" t="s">
+      <c r="C339" s="9" t="s">
         <v>1793</v>
       </c>
-      <c r="D339" s="11">
+      <c r="D339" s="10">
         <v>190.89</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340" s="5" t="s">
+      <c r="A340" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="9" t="s">
         <v>1794</v>
       </c>
-      <c r="C340" s="10" t="s">
+      <c r="C340" s="9" t="s">
         <v>1794</v>
       </c>
-      <c r="D340" s="11">
+      <c r="D340" s="10">
         <v>356</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="9" t="s">
         <v>1795</v>
       </c>
-      <c r="C341" s="10" t="s">
+      <c r="C341" s="9" t="s">
         <v>1795</v>
       </c>
-      <c r="D341" s="11">
+      <c r="D341" s="10">
         <v>229.42</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" s="5" t="s">
+      <c r="A342" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B342" s="9" t="s">
         <v>1796</v>
       </c>
-      <c r="C342" s="10" t="s">
+      <c r="C342" s="9" t="s">
         <v>1796</v>
       </c>
-      <c r="D342" s="11">
+      <c r="D342" s="10">
         <v>374.74</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" s="5" t="s">
+    <row r="343" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B343" s="10" t="s">
+      <c r="B343" s="9" t="s">
         <v>1797</v>
       </c>
-      <c r="C343" s="10" t="s">
+      <c r="C343" s="9" t="s">
         <v>1797</v>
       </c>
-      <c r="D343" s="11">
+      <c r="D343" s="10">
         <v>406.05</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="9" t="s">
         <v>1798</v>
       </c>
-      <c r="C344" s="10" t="s">
+      <c r="C344" s="9" t="s">
         <v>1798</v>
       </c>
-      <c r="D344" s="11">
+      <c r="D344" s="10">
         <v>397.55</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="9" t="s">
         <v>1799</v>
       </c>
-      <c r="C345" s="10" t="s">
+      <c r="C345" s="9" t="s">
         <v>1799</v>
       </c>
-      <c r="D345" s="11">
+      <c r="D345" s="10">
         <v>415.68</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" s="5" t="s">
+    <row r="346" spans="1:4" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="9" t="s">
         <v>1800</v>
       </c>
-      <c r="C346" s="10" t="s">
+      <c r="C346" s="9" t="s">
         <v>1800</v>
       </c>
-      <c r="D346" s="11">
+      <c r="D346" s="10">
         <v>284.83999999999997</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" s="5" t="s">
+    <row r="347" spans="1:4" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="9" t="s">
         <v>1801</v>
       </c>
-      <c r="C347" s="10" t="s">
+      <c r="C347" s="9" t="s">
         <v>1801</v>
       </c>
-      <c r="D347" s="11">
+      <c r="D347" s="10">
         <v>325.82</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" s="5" t="s">
+    <row r="348" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="9" t="s">
         <v>1802</v>
       </c>
-      <c r="C348" s="10" t="s">
+      <c r="C348" s="9" t="s">
         <v>1802</v>
       </c>
-      <c r="D348" s="11">
+      <c r="D348" s="10">
         <v>514.98</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" s="5" t="s">
+      <c r="A349" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B349" s="6" t="s">
+      <c r="B349" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="C349" s="6" t="s">
+      <c r="C349" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="D349" s="7">
+      <c r="D349" s="6">
         <v>116.69</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" s="5" t="s">
+      <c r="A350" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B350" s="6" t="s">
+      <c r="B350" s="5" t="s">
         <v>1804</v>
       </c>
-      <c r="C350" s="6" t="s">
+      <c r="C350" s="5" t="s">
         <v>1804</v>
       </c>
-      <c r="D350" s="7">
+      <c r="D350" s="6">
         <v>116.69</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" s="5" t="s">
+    <row r="351" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B351" s="6" t="s">
+      <c r="B351" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C351" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="D351" s="7">
+      <c r="D351" s="6">
         <v>116.69</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" s="5" t="s">
+    <row r="352" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B352" s="6" t="s">
+      <c r="B352" s="5" t="s">
         <v>1806</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C352" s="5" t="s">
         <v>1806</v>
       </c>
-      <c r="D352" s="7">
+      <c r="D352" s="6">
         <v>116.69</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="9" t="s">
         <v>1807</v>
       </c>
-      <c r="C353" s="10" t="s">
+      <c r="C353" s="9" t="s">
         <v>1807</v>
       </c>
-      <c r="D353" s="11">
+      <c r="D353" s="10">
         <v>141.72999999999999</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B354" s="9" t="s">
         <v>1808</v>
       </c>
-      <c r="C354" s="10" t="s">
+      <c r="C354" s="9" t="s">
         <v>1808</v>
       </c>
-      <c r="D354" s="11">
+      <c r="D354" s="10">
         <v>209.69</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" s="5" t="s">
+    <row r="355" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B355" s="15" t="s">
+      <c r="B355" s="14" t="s">
         <v>1809</v>
       </c>
-      <c r="C355" s="15" t="s">
+      <c r="C355" s="14" t="s">
         <v>1809</v>
       </c>
-      <c r="D355" s="16">
+      <c r="D355" s="15">
         <v>232.49</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" s="5" t="s">
+      <c r="A356" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B356" s="9" t="s">
         <v>1810</v>
       </c>
-      <c r="C356" s="10" t="s">
+      <c r="C356" s="9" t="s">
         <v>1810</v>
       </c>
-      <c r="D356" s="11">
+      <c r="D356" s="10">
         <v>239.54</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B357" s="6" t="s">
+      <c r="B357" s="5" t="s">
         <v>1811</v>
       </c>
-      <c r="C357" s="6" t="s">
+      <c r="C357" s="5" t="s">
         <v>1811</v>
       </c>
-      <c r="D357" s="7">
+      <c r="D357" s="6">
         <v>121.7</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358" s="5" t="s">
+      <c r="A358" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B358" s="6" t="s">
+      <c r="B358" s="5" t="s">
         <v>1812</v>
       </c>
-      <c r="C358" s="6" t="s">
+      <c r="C358" s="5" t="s">
         <v>1812</v>
       </c>
-      <c r="D358" s="7">
+      <c r="D358" s="6">
         <v>121.7</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" s="5" t="s">
+      <c r="A359" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B359" s="6" t="s">
+      <c r="B359" s="5" t="s">
         <v>1813</v>
       </c>
-      <c r="C359" s="6" t="s">
+      <c r="C359" s="5" t="s">
         <v>1813</v>
       </c>
-      <c r="D359" s="7">
+      <c r="D359" s="6">
         <v>121.7</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" s="5" t="s">
+      <c r="A360" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B360" s="6" t="s">
+      <c r="B360" s="5" t="s">
         <v>1814</v>
       </c>
-      <c r="C360" s="6" t="s">
+      <c r="C360" s="5" t="s">
         <v>1814</v>
       </c>
-      <c r="D360" s="7">
+      <c r="D360" s="6">
         <v>121.7</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" s="5" t="s">
+      <c r="A361" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B361" s="9" t="s">
         <v>1815</v>
       </c>
-      <c r="C361" s="10" t="s">
+      <c r="C361" s="9" t="s">
         <v>1815</v>
       </c>
-      <c r="D361" s="11">
+      <c r="D361" s="10">
         <v>312.87</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" s="5" t="s">
+      <c r="A362" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B362" s="9" t="s">
         <v>1816</v>
       </c>
-      <c r="C362" s="10" t="s">
+      <c r="C362" s="9" t="s">
         <v>1816</v>
       </c>
-      <c r="D362" s="11">
+      <c r="D362" s="10">
         <v>374.72</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" s="5" t="s">
+      <c r="A363" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B363" s="6" t="s">
+      <c r="B363" s="5" t="s">
         <v>1817</v>
       </c>
-      <c r="C363" s="6" t="s">
+      <c r="C363" s="5" t="s">
         <v>1817</v>
       </c>
-      <c r="D363" s="7">
+      <c r="D363" s="6">
         <v>264.64</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B364" s="6" t="s">
+      <c r="B364" s="5" t="s">
         <v>1818</v>
       </c>
-      <c r="C364" s="6" t="s">
+      <c r="C364" s="5" t="s">
         <v>1818</v>
       </c>
-      <c r="D364" s="7">
+      <c r="D364" s="6">
         <v>315.77</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365" s="5" t="s">
+      <c r="A365" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B365" s="9" t="s">
         <v>1819</v>
       </c>
-      <c r="C365" s="10" t="s">
+      <c r="C365" s="9" t="s">
         <v>1819</v>
       </c>
-      <c r="D365" s="11">
+      <c r="D365" s="10">
         <v>577.05999999999995</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366" s="5" t="s">
+      <c r="A366" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B366" s="10" t="s">
+      <c r="B366" s="9" t="s">
         <v>1820</v>
       </c>
-      <c r="C366" s="10" t="s">
+      <c r="C366" s="9" t="s">
         <v>1820</v>
       </c>
-      <c r="D366" s="11">
+      <c r="D366" s="10">
         <v>500.95</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367" s="5" t="s">
+      <c r="A367" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B367" s="6" t="s">
+      <c r="B367" s="5" t="s">
         <v>1821</v>
       </c>
-      <c r="C367" s="6" t="s">
+      <c r="C367" s="5" t="s">
         <v>1821</v>
       </c>
-      <c r="D367" s="7">
+      <c r="D367" s="6">
         <v>563.37</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368" s="5" t="s">
+      <c r="A368" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B368" s="10" t="s">
+      <c r="B368" s="9" t="s">
         <v>1822</v>
       </c>
-      <c r="C368" s="10" t="s">
+      <c r="C368" s="9" t="s">
         <v>1822</v>
       </c>
-      <c r="D368" s="11">
+      <c r="D368" s="10">
         <v>443.01</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369" s="5" t="s">
+      <c r="A369" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B369" s="9" t="s">
         <v>1823</v>
       </c>
-      <c r="C369" s="10" t="s">
+      <c r="C369" s="9" t="s">
         <v>1823</v>
       </c>
-      <c r="D369" s="11">
+      <c r="D369" s="10">
         <v>511.02</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370" s="5" t="s">
+      <c r="A370" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B370" s="9" t="s">
         <v>1824</v>
       </c>
-      <c r="C370" s="10" t="s">
+      <c r="C370" s="9" t="s">
         <v>1824</v>
       </c>
-      <c r="D370" s="11">
+      <c r="D370" s="10">
         <v>583.77</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371" s="5" t="s">
+      <c r="A371" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B371" s="10" t="s">
+      <c r="B371" s="9" t="s">
         <v>1825</v>
       </c>
-      <c r="C371" s="10" t="s">
+      <c r="C371" s="9" t="s">
         <v>1825</v>
       </c>
-      <c r="D371" s="11">
+      <c r="D371" s="10">
         <v>1497.82</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B372" s="10" t="s">
+      <c r="B372" s="9" t="s">
         <v>1826</v>
       </c>
-      <c r="C372" s="10" t="s">
+      <c r="C372" s="9" t="s">
         <v>1826</v>
       </c>
-      <c r="D372" s="11">
+      <c r="D372" s="10">
         <v>630.88</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373" s="5" t="s">
+      <c r="A373" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B373" s="9" t="s">
         <v>1827</v>
       </c>
-      <c r="C373" s="10" t="s">
+      <c r="C373" s="9" t="s">
         <v>1827</v>
       </c>
-      <c r="D373" s="11">
+      <c r="D373" s="10">
         <v>651.83000000000004</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374" s="5" t="s">
+      <c r="A374" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B374" s="9" t="s">
         <v>1828</v>
       </c>
-      <c r="C374" s="10" t="s">
+      <c r="C374" s="9" t="s">
         <v>1828</v>
       </c>
-      <c r="D374" s="11">
+      <c r="D374" s="10">
         <v>1630.04</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375" s="5" t="s">
+      <c r="A375" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B375" s="9" t="s">
         <v>1829</v>
       </c>
-      <c r="C375" s="10" t="s">
+      <c r="C375" s="9" t="s">
         <v>1829</v>
       </c>
-      <c r="D375" s="11">
+      <c r="D375" s="10">
         <v>705.26</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376" s="5" t="s">
+      <c r="A376" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="B376" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="C376" s="10" t="s">
+      <c r="C376" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="D376" s="11">
+      <c r="D376" s="10">
         <v>773.29</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377" s="5" t="s">
+    <row r="377" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B377" s="6" t="s">
+      <c r="B377" s="5" t="s">
         <v>1831</v>
       </c>
-      <c r="C377" s="6" t="s">
+      <c r="C377" s="5" t="s">
         <v>1831</v>
       </c>
-      <c r="D377" s="7">
+      <c r="D377" s="6">
         <v>49.01</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378" s="5" t="s">
+    <row r="378" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B378" s="6" t="s">
+      <c r="B378" s="5" t="s">
         <v>1832</v>
       </c>
-      <c r="C378" s="6" t="s">
+      <c r="C378" s="5" t="s">
         <v>1832</v>
       </c>
-      <c r="D378" s="7">
+      <c r="D378" s="6">
         <v>47.97</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A379" s="5" t="s">
+    <row r="379" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B379" s="6" t="s">
+      <c r="B379" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="C379" s="6" t="s">
+      <c r="C379" s="5" t="s">
         <v>1833</v>
       </c>
-      <c r="D379" s="7">
+      <c r="D379" s="6">
         <v>49.79</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380" s="5" t="s">
+    <row r="380" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B380" s="6" t="s">
+      <c r="B380" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="C380" s="6" t="s">
+      <c r="C380" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="D380" s="7">
+      <c r="D380" s="6">
         <v>23.26</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381" s="5" t="s">
+    <row r="381" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B381" s="6" t="s">
+      <c r="B381" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="C381" s="6" t="s">
+      <c r="C381" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="D381" s="7">
+      <c r="D381" s="6">
         <v>34.03</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A382" s="5" t="s">
+    <row r="382" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B382" s="6" t="s">
+      <c r="B382" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="C382" s="6" t="s">
+      <c r="C382" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="D382" s="7">
+      <c r="D382" s="6">
         <v>44.47</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A383" s="5" t="s">
+    <row r="383" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B383" s="6" t="s">
+      <c r="B383" s="5" t="s">
         <v>1837</v>
       </c>
-      <c r="C383" s="6" t="s">
+      <c r="C383" s="5" t="s">
         <v>1837</v>
       </c>
-      <c r="D383" s="7">
+      <c r="D383" s="6">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A384" s="5" t="s">
+    <row r="384" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B384" s="6" t="s">
+      <c r="B384" s="5" t="s">
         <v>1838</v>
       </c>
-      <c r="C384" s="6" t="s">
+      <c r="C384" s="5" t="s">
         <v>1838</v>
       </c>
-      <c r="D384" s="7">
+      <c r="D384" s="6">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385" s="5" t="s">
+    <row r="385" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B385" s="6" t="s">
+      <c r="B385" s="5" t="s">
         <v>1839</v>
       </c>
-      <c r="C385" s="6" t="s">
+      <c r="C385" s="5" t="s">
         <v>1839</v>
       </c>
-      <c r="D385" s="7">
+      <c r="D385" s="6">
         <v>27.31</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A386" s="5" t="s">
+    <row r="386" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B386" s="6" t="s">
+      <c r="B386" s="5" t="s">
         <v>1840</v>
       </c>
-      <c r="C386" s="6" t="s">
+      <c r="C386" s="5" t="s">
         <v>1840</v>
       </c>
-      <c r="D386" s="7">
+      <c r="D386" s="6">
         <v>27.3</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387" s="5" t="s">
+      <c r="A387" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B387" s="6" t="s">
+      <c r="B387" s="5" t="s">
         <v>1841</v>
       </c>
-      <c r="C387" s="6" t="s">
+      <c r="C387" s="5" t="s">
         <v>1841</v>
       </c>
-      <c r="D387" s="7">
+      <c r="D387" s="6">
         <v>53.46</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A388" s="5" t="s">
+      <c r="A388" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B388" s="6" t="s">
+      <c r="B388" s="5" t="s">
         <v>1842</v>
       </c>
-      <c r="C388" s="6" t="s">
+      <c r="C388" s="5" t="s">
         <v>1842</v>
       </c>
-      <c r="D388" s="7">
+      <c r="D388" s="6">
         <v>53.46</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389" s="5" t="s">
+      <c r="A389" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B389" s="10" t="s">
+      <c r="B389" s="9" t="s">
         <v>1843</v>
       </c>
-      <c r="C389" s="10" t="s">
+      <c r="C389" s="9" t="s">
         <v>1843</v>
       </c>
-      <c r="D389" s="11">
+      <c r="D389" s="10">
         <v>89</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390" s="5" t="s">
+    <row r="390" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B390" s="10" t="s">
+      <c r="B390" s="9" t="s">
         <v>1844</v>
       </c>
-      <c r="C390" s="10" t="s">
+      <c r="C390" s="9" t="s">
         <v>1844</v>
       </c>
-      <c r="D390" s="11">
+      <c r="D390" s="10">
         <v>494.29</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391" s="5" t="s">
+      <c r="A391" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B391" s="10" t="s">
+      <c r="B391" s="9" t="s">
         <v>1845</v>
       </c>
-      <c r="C391" s="10" t="s">
+      <c r="C391" s="9" t="s">
         <v>1845</v>
       </c>
-      <c r="D391" s="11">
+      <c r="D391" s="10">
         <v>177.82</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392" s="5" t="s">
+      <c r="A392" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B392" s="10" t="s">
+      <c r="B392" s="9" t="s">
         <v>1846</v>
       </c>
-      <c r="C392" s="10" t="s">
+      <c r="C392" s="9" t="s">
         <v>1846</v>
       </c>
-      <c r="D392" s="11">
+      <c r="D392" s="10">
         <v>52.03</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393" s="5" t="s">
+      <c r="A393" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B393" s="10" t="s">
+      <c r="B393" s="9" t="s">
         <v>1847</v>
       </c>
-      <c r="C393" s="10" t="s">
+      <c r="C393" s="9" t="s">
         <v>1847</v>
       </c>
-      <c r="D393" s="11">
+      <c r="D393" s="10">
         <v>52.03</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394" s="5" t="s">
+      <c r="A394" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B394" s="10" t="s">
+      <c r="B394" s="9" t="s">
         <v>1848</v>
       </c>
-      <c r="C394" s="10" t="s">
+      <c r="C394" s="9" t="s">
         <v>1848</v>
       </c>
-      <c r="D394" s="11">
+      <c r="D394" s="10">
         <v>80.19</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395" s="5" t="s">
+      <c r="A395" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B395" s="10" t="s">
+      <c r="B395" s="9" t="s">
         <v>1849</v>
       </c>
-      <c r="C395" s="10" t="s">
+      <c r="C395" s="9" t="s">
         <v>1849</v>
       </c>
-      <c r="D395" s="11">
+      <c r="D395" s="10">
         <v>52.03</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396" s="5" t="s">
+      <c r="A396" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="B396" s="9" t="s">
         <v>1850</v>
       </c>
-      <c r="C396" s="10" t="s">
+      <c r="C396" s="9" t="s">
         <v>1850</v>
       </c>
-      <c r="D396" s="11">
+      <c r="D396" s="10">
         <v>52.03</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A397" s="5" t="s">
+      <c r="A397" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B397" s="15" t="s">
+      <c r="B397" s="14" t="s">
         <v>1851</v>
       </c>
-      <c r="C397" s="15" t="s">
+      <c r="C397" s="14" t="s">
         <v>1851</v>
       </c>
-      <c r="D397" s="16">
+      <c r="D397" s="15">
         <v>69.900000000000006</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398" s="5" t="s">
+      <c r="A398" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B398" s="10" t="s">
+      <c r="B398" s="9" t="s">
         <v>1852</v>
       </c>
-      <c r="C398" s="10" t="s">
+      <c r="C398" s="9" t="s">
         <v>1852</v>
       </c>
-      <c r="D398" s="11">
+      <c r="D398" s="10">
         <v>281.14</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A399" s="5" t="s">
+      <c r="A399" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B399" s="15" t="s">
+      <c r="B399" s="14" t="s">
         <v>1853</v>
       </c>
-      <c r="C399" s="15" t="s">
+      <c r="C399" s="14" t="s">
         <v>1853</v>
       </c>
-      <c r="D399" s="16">
+      <c r="D399" s="15">
         <v>363.26</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400" s="5" t="s">
+      <c r="A400" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="B400" s="9" t="s">
         <v>1854</v>
       </c>
-      <c r="C400" s="10" t="s">
+      <c r="C400" s="9" t="s">
         <v>1854</v>
       </c>
-      <c r="D400" s="11">
+      <c r="D400" s="10">
         <v>722.95</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A401" s="5" t="s">
+      <c r="A401" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B401" s="6" t="s">
+      <c r="B401" s="5" t="s">
         <v>1855</v>
       </c>
-      <c r="C401" s="6" t="s">
+      <c r="C401" s="5" t="s">
         <v>1855</v>
       </c>
-      <c r="D401" s="7">
+      <c r="D401" s="6">
         <v>159.18</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A402" s="5" t="s">
+      <c r="A402" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B402" s="6" t="s">
+      <c r="B402" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="C402" s="6" t="s">
+      <c r="C402" s="5" t="s">
         <v>1856</v>
       </c>
-      <c r="D402" s="7">
+      <c r="D402" s="6">
         <v>159.18</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A403" s="5" t="s">
+      <c r="A403" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B403" s="6" t="s">
+      <c r="B403" s="5" t="s">
         <v>1857</v>
       </c>
-      <c r="C403" s="6" t="s">
+      <c r="C403" s="5" t="s">
         <v>1857</v>
       </c>
-      <c r="D403" s="7">
+      <c r="D403" s="6">
         <v>159.18</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A404" s="5" t="s">
+      <c r="A404" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B404" s="6" t="s">
+      <c r="B404" s="5" t="s">
         <v>1858</v>
       </c>
-      <c r="C404" s="6" t="s">
+      <c r="C404" s="5" t="s">
         <v>1858</v>
       </c>
-      <c r="D404" s="7">
+      <c r="D404" s="6">
         <v>159.18</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A405" s="5" t="s">
+      <c r="A405" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B405" s="6" t="s">
+      <c r="B405" s="5" t="s">
         <v>1859</v>
       </c>
-      <c r="C405" s="6" t="s">
+      <c r="C405" s="5" t="s">
         <v>1859</v>
       </c>
-      <c r="D405" s="7">
+      <c r="D405" s="6">
         <v>189</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A406" s="5" t="s">
+      <c r="A406" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B406" s="10" t="s">
+      <c r="B406" s="9" t="s">
         <v>1860</v>
       </c>
-      <c r="C406" s="10" t="s">
+      <c r="C406" s="9" t="s">
         <v>1860</v>
       </c>
-      <c r="D406" s="11">
+      <c r="D406" s="10">
         <v>651.83000000000004</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A407" s="5" t="s">
+      <c r="A407" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B407" s="6" t="s">
+      <c r="B407" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="C407" s="6" t="s">
+      <c r="C407" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="D407" s="7">
+      <c r="D407" s="6">
         <v>117.47</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A408" s="5" t="s">
+      <c r="A408" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B408" s="6" t="s">
+      <c r="B408" s="5" t="s">
         <v>1862</v>
       </c>
-      <c r="C408" s="6" t="s">
+      <c r="C408" s="5" t="s">
         <v>1862</v>
       </c>
-      <c r="D408" s="7">
+      <c r="D408" s="6">
         <v>117.47</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A409" s="5" t="s">
+      <c r="A409" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B409" s="6" t="s">
+      <c r="B409" s="5" t="s">
         <v>1863</v>
       </c>
-      <c r="C409" s="6" t="s">
+      <c r="C409" s="5" t="s">
         <v>1863</v>
       </c>
-      <c r="D409" s="7">
+      <c r="D409" s="6">
         <v>117.47</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A410" s="5" t="s">
+      <c r="A410" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B410" s="6" t="s">
+      <c r="B410" s="5" t="s">
         <v>1864</v>
       </c>
-      <c r="C410" s="6" t="s">
+      <c r="C410" s="5" t="s">
         <v>1864</v>
       </c>
-      <c r="D410" s="7">
+      <c r="D410" s="6">
         <v>117.47</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A411" s="5" t="s">
+      <c r="A411" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B411" s="10" t="s">
+      <c r="B411" s="9" t="s">
         <v>1865</v>
       </c>
-      <c r="C411" s="10" t="s">
+      <c r="C411" s="9" t="s">
         <v>1865</v>
       </c>
-      <c r="D411" s="11">
+      <c r="D411" s="10">
         <v>116.51</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A412" s="5" t="s">
+      <c r="A412" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B412" s="6" t="s">
+      <c r="B412" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="C412" s="6" t="s">
+      <c r="C412" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="D412" s="7">
+      <c r="D412" s="6">
         <v>135</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B413" s="10" t="s">
+      <c r="B413" s="9" t="s">
         <v>1867</v>
       </c>
-      <c r="C413" s="10" t="s">
+      <c r="C413" s="9" t="s">
         <v>1867</v>
       </c>
-      <c r="D413" s="11">
+      <c r="D413" s="10">
         <v>172.16</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B414" s="10" t="s">
+      <c r="B414" s="9" t="s">
         <v>1868</v>
       </c>
-      <c r="C414" s="10" t="s">
+      <c r="C414" s="9" t="s">
         <v>1868</v>
       </c>
-      <c r="D414" s="11">
+      <c r="D414" s="10">
         <v>190.1</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B415" s="10" t="s">
+      <c r="B415" s="9" t="s">
         <v>1869</v>
       </c>
-      <c r="C415" s="10" t="s">
+      <c r="C415" s="9" t="s">
         <v>1869</v>
       </c>
-      <c r="D415" s="11">
+      <c r="D415" s="10">
         <v>235.26</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B416" s="10" t="s">
+      <c r="B416" s="9" t="s">
         <v>1870</v>
       </c>
-      <c r="C416" s="10" t="s">
+      <c r="C416" s="9" t="s">
         <v>1870</v>
       </c>
-      <c r="D416" s="11">
+      <c r="D416" s="10">
         <v>332.47</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A417" s="5" t="s">
+      <c r="A417" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B417" s="10" t="s">
+      <c r="B417" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="C417" s="10" t="s">
+      <c r="C417" s="9" t="s">
         <v>1871</v>
       </c>
-      <c r="D417" s="11">
+      <c r="D417" s="10">
         <v>397.73</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A418" s="5" t="s">
+      <c r="A418" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B418" s="10" t="s">
+      <c r="B418" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="C418" s="10" t="s">
+      <c r="C418" s="9" t="s">
         <v>1872</v>
       </c>
-      <c r="D418" s="11">
+      <c r="D418" s="10">
         <v>639</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A419" s="5" t="s">
+      <c r="A419" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B419" s="10" t="s">
+      <c r="B419" s="9" t="s">
         <v>1873</v>
       </c>
-      <c r="C419" s="10" t="s">
+      <c r="C419" s="9" t="s">
         <v>1873</v>
       </c>
-      <c r="D419" s="11">
+      <c r="D419" s="10">
         <v>686.84</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A420" s="5" t="s">
+      <c r="A420" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B420" s="15" t="s">
+      <c r="B420" s="14" t="s">
         <v>1874</v>
       </c>
-      <c r="C420" s="15" t="s">
+      <c r="C420" s="14" t="s">
         <v>1874</v>
       </c>
-      <c r="D420" s="16">
+      <c r="D420" s="15">
         <v>584.55999999999995</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B421" s="6" t="s">
+      <c r="B421" s="5" t="s">
         <v>1875</v>
       </c>
-      <c r="C421" s="6" t="s">
+      <c r="C421" s="5" t="s">
         <v>1875</v>
       </c>
-      <c r="D421" s="7">
+      <c r="D421" s="6">
         <v>615.34</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A422" s="5" t="s">
+      <c r="A422" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B422" s="6" t="s">
+      <c r="B422" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="C422" s="6" t="s">
+      <c r="C422" s="5" t="s">
         <v>1876</v>
       </c>
-      <c r="D422" s="7">
+      <c r="D422" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A423" s="5" t="s">
+      <c r="A423" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B423" s="6" t="s">
+      <c r="B423" s="5" t="s">
         <v>1877</v>
       </c>
-      <c r="C423" s="6" t="s">
+      <c r="C423" s="5" t="s">
         <v>1877</v>
       </c>
-      <c r="D423" s="7">
+      <c r="D423" s="6">
         <v>28.01</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A424" s="5" t="s">
+    <row r="424" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B424" s="6" t="s">
+      <c r="B424" s="5" t="s">
         <v>1878</v>
       </c>
-      <c r="C424" s="6" t="s">
+      <c r="C424" s="5" t="s">
         <v>1878</v>
       </c>
-      <c r="D424" s="7">
+      <c r="D424" s="6">
         <v>52.82</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A425" s="5" t="s">
+      <c r="A425" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B425" s="6" t="s">
+      <c r="B425" s="5" t="s">
         <v>1879</v>
       </c>
-      <c r="C425" s="6" t="s">
+      <c r="C425" s="5" t="s">
         <v>1879</v>
       </c>
-      <c r="D425" s="7">
+      <c r="D425" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A426" s="5" t="s">
+    <row r="426" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B426" s="6" t="s">
+      <c r="B426" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="C426" s="6" t="s">
+      <c r="C426" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="D426" s="7">
+      <c r="D426" s="6">
         <v>53.49</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A427" s="5" t="s">
+    <row r="427" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B427" s="6" t="s">
+      <c r="B427" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="C427" s="6" t="s">
+      <c r="C427" s="5" t="s">
         <v>1881</v>
       </c>
-      <c r="D427" s="7">
+      <c r="D427" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A428" s="5" t="s">
+    <row r="428" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B428" s="6" t="s">
+      <c r="B428" s="5" t="s">
         <v>1882</v>
       </c>
-      <c r="C428" s="6" t="s">
+      <c r="C428" s="5" t="s">
         <v>1882</v>
       </c>
-      <c r="D428" s="7">
+      <c r="D428" s="6">
         <v>69.010000000000005</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A429" s="5" t="s">
+    <row r="429" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B429" s="6" t="s">
+      <c r="B429" s="5" t="s">
         <v>1883</v>
       </c>
-      <c r="C429" s="6" t="s">
+      <c r="C429" s="5" t="s">
         <v>1883</v>
       </c>
-      <c r="D429" s="7">
+      <c r="D429" s="6">
         <v>1839.72</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A430" s="5" t="s">
+    <row r="430" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B430" s="6" t="s">
+      <c r="B430" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="C430" s="6" t="s">
+      <c r="C430" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="D430" s="7">
+      <c r="D430" s="6">
         <v>1839.72</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A431" s="5" t="s">
+    <row r="431" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B431" s="6" t="s">
+      <c r="B431" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="C431" s="6" t="s">
+      <c r="C431" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="D431" s="7">
+      <c r="D431" s="6">
         <v>1839.72</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A432" s="5" t="s">
+    <row r="432" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B432" s="6" t="s">
+      <c r="B432" s="5" t="s">
         <v>1886</v>
       </c>
-      <c r="C432" s="6" t="s">
+      <c r="C432" s="5" t="s">
         <v>1886</v>
       </c>
-      <c r="D432" s="7">
+      <c r="D432" s="6">
         <v>1839.72</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A433" s="5" t="s">
+      <c r="A433" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B433" s="6" t="s">
+      <c r="B433" s="5" t="s">
         <v>1887</v>
       </c>
-      <c r="C433" s="6" t="s">
+      <c r="C433" s="5" t="s">
         <v>1887</v>
       </c>
-      <c r="D433" s="7">
+      <c r="D433" s="6">
         <v>7105.35</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A434" s="5" t="s">
+    <row r="434" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B434" s="6" t="s">
+      <c r="B434" s="5" t="s">
         <v>1888</v>
       </c>
-      <c r="C434" s="6" t="s">
+      <c r="C434" s="5" t="s">
         <v>1888</v>
       </c>
-      <c r="D434" s="7">
+      <c r="D434" s="6">
         <v>7105.35</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A435" s="5" t="s">
+    <row r="435" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B435" s="6" t="s">
+      <c r="B435" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="C435" s="6" t="s">
+      <c r="C435" s="5" t="s">
         <v>1889</v>
       </c>
-      <c r="D435" s="7">
+      <c r="D435" s="6">
         <v>2707.31</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A436" s="5" t="s">
+      <c r="A436" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B436" s="10" t="s">
+      <c r="B436" s="9" t="s">
         <v>1890</v>
       </c>
-      <c r="C436" s="10" t="s">
+      <c r="C436" s="9" t="s">
         <v>1890</v>
       </c>
-      <c r="D436" s="11">
+      <c r="D436" s="10">
         <v>234.02</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A437" s="5" t="s">
+      <c r="A437" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B437" s="10" t="s">
+      <c r="B437" s="9" t="s">
         <v>1891</v>
       </c>
-      <c r="C437" s="10" t="s">
+      <c r="C437" s="9" t="s">
         <v>1891</v>
       </c>
-      <c r="D437" s="11">
+      <c r="D437" s="10">
         <v>267.02999999999997</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A438" s="5" t="s">
+      <c r="A438" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B438" s="10" t="s">
+      <c r="B438" s="9" t="s">
         <v>1892</v>
       </c>
-      <c r="C438" s="10" t="s">
+      <c r="C438" s="9" t="s">
         <v>1892</v>
       </c>
-      <c r="D438" s="11">
+      <c r="D438" s="10">
         <v>284.14999999999998</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A439" s="5" t="s">
+      <c r="A439" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B439" s="10" t="s">
+      <c r="B439" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="C439" s="10" t="s">
+      <c r="C439" s="9" t="s">
         <v>1893</v>
       </c>
-      <c r="D439" s="11">
+      <c r="D439" s="10">
         <v>230.66</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B440" s="10" t="s">
+      <c r="B440" s="9" t="s">
         <v>1894</v>
       </c>
-      <c r="C440" s="10" t="s">
+      <c r="C440" s="9" t="s">
         <v>1894</v>
       </c>
-      <c r="D440" s="11">
+      <c r="D440" s="10">
         <v>267.02</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A441" s="5" t="s">
+      <c r="A441" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B441" s="10" t="s">
+      <c r="B441" s="9" t="s">
         <v>1895</v>
       </c>
-      <c r="C441" s="10" t="s">
+      <c r="C441" s="9" t="s">
         <v>1895</v>
       </c>
-      <c r="D441" s="11">
+      <c r="D441" s="10">
         <v>324.62</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A442" s="5" t="s">
+      <c r="A442" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B442" s="5" t="s">
+      <c r="B442" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="C442" s="5" t="s">
+      <c r="C442" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="D442" s="17">
+      <c r="D442" s="16">
         <v>3799</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A443" s="5" t="s">
+      <c r="A443" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B443" s="5" t="s">
+      <c r="B443" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="C443" s="5" t="s">
+      <c r="C443" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="D443" s="17">
+      <c r="D443" s="16">
         <v>4301</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A444" s="5" t="s">
+      <c r="A444" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B444" s="5" t="s">
+      <c r="B444" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="C444" s="5" t="s">
+      <c r="C444" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="D444" s="17">
+      <c r="D444" s="16">
         <v>1285</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A445" s="5" t="s">
+      <c r="A445" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B445" s="5" t="s">
+      <c r="B445" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="C445" s="5" t="s">
+      <c r="C445" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="D445" s="17">
+      <c r="D445" s="16">
         <v>6067</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A446" s="5" t="s">
+      <c r="A446" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B446" s="5" t="s">
+      <c r="B446" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C446" s="5" t="s">
+      <c r="C446" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="D446" s="17">
+      <c r="D446" s="16">
         <v>6795</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A447" s="5" t="s">
+      <c r="A447" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B447" s="5" t="s">
+      <c r="B447" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="C447" s="5" t="s">
+      <c r="C447" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="D447" s="17">
+      <c r="D447" s="16">
         <v>2140</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A448" s="5" t="s">
+      <c r="A448" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B448" s="5" t="s">
+      <c r="B448" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="C448" s="5" t="s">
+      <c r="C448" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="D448" s="17">
+      <c r="D448" s="16">
         <v>2500</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449" s="5" t="s">
+      <c r="A449" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B449" s="5" t="s">
+      <c r="B449" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="C449" s="5" t="s">
+      <c r="C449" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="D449" s="17">
+      <c r="D449" s="16">
         <v>2718</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450" s="5" t="s">
+      <c r="A450" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B450" s="5" t="s">
+      <c r="B450" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="C450" s="5" t="s">
+      <c r="C450" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="D450" s="17">
+      <c r="D450" s="16">
         <v>1785</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451" s="5" t="s">
+      <c r="A451" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B451" s="5" t="s">
+      <c r="B451" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="C451" s="5" t="s">
+      <c r="C451" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="D451" s="17">
+      <c r="D451" s="16">
         <v>3518</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452" s="5" t="s">
+      <c r="A452" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B452" s="5" t="s">
+      <c r="B452" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="C452" s="5" t="s">
+      <c r="C452" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="D452" s="17">
+      <c r="D452" s="16">
         <v>3641</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A453" s="5" t="s">
+      <c r="A453" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B453" s="5" t="s">
+      <c r="B453" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="C453" s="5" t="s">
+      <c r="C453" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="D453" s="17">
+      <c r="D453" s="16">
         <v>1284</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A454" s="5" t="s">
+      <c r="A454" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B454" s="5" t="s">
+      <c r="B454" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="C454" s="5" t="s">
+      <c r="C454" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="D454" s="17">
+      <c r="D454" s="16">
         <v>1391</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A455" s="5" t="s">
+      <c r="A455" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B455" s="5" t="s">
+      <c r="B455" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="C455" s="5" t="s">
+      <c r="C455" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="D455" s="17">
+      <c r="D455" s="16">
         <v>5000</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A456" s="5" t="s">
+      <c r="A456" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B456" s="5" t="s">
+      <c r="B456" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="C456" s="5" t="s">
+      <c r="C456" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="D456" s="17">
+      <c r="D456" s="16">
         <v>2360</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A457" s="5" t="s">
+      <c r="A457" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B457" s="5" t="s">
+      <c r="B457" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C457" s="5" t="s">
+      <c r="C457" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="D457" s="17">
+      <c r="D457" s="16">
         <v>2690</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A458" s="5" t="s">
+      <c r="A458" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B458" s="5" t="s">
+      <c r="B458" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C458" s="5" t="s">
+      <c r="C458" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="D458" s="17">
+      <c r="D458" s="16">
         <v>3800</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A459" s="5" t="s">
+      <c r="A459" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B459" s="5" t="s">
+      <c r="B459" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="C459" s="5" t="s">
+      <c r="C459" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="D459" s="17">
+      <c r="D459" s="16">
         <v>2836</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A460" s="5" t="s">
+      <c r="A460" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B460" s="5" t="s">
+      <c r="B460" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="C460" s="5" t="s">
+      <c r="C460" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="D460" s="17">
+      <c r="D460" s="16">
         <v>3071</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A461" s="5" t="s">
+      <c r="A461" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B461" s="5" t="s">
+      <c r="B461" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="C461" s="5" t="s">
+      <c r="C461" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="D461" s="17">
+      <c r="D461" s="16">
         <v>3638</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A462" s="5" t="s">
+      <c r="A462" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B462" s="5" t="s">
+      <c r="B462" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="C462" s="5" t="s">
+      <c r="C462" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="D462" s="17">
+      <c r="D462" s="16">
         <v>4500</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A463" s="5" t="s">
+      <c r="A463" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B463" s="5" t="s">
+      <c r="B463" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="C463" s="5" t="s">
+      <c r="C463" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="D463" s="17">
+      <c r="D463" s="16">
         <v>2300</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A464" s="5" t="s">
+      <c r="A464" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B464" s="5" t="s">
+      <c r="B464" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="C464" s="5" t="s">
+      <c r="C464" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D464" s="17">
+      <c r="D464" s="16">
         <v>2120</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A465" s="5" t="s">
+      <c r="A465" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B465" s="5" t="s">
+      <c r="B465" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="C465" s="5" t="s">
+      <c r="C465" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="D465" s="17">
+      <c r="D465" s="16">
         <v>1712</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A466" s="5" t="s">
+      <c r="A466" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B466" s="5" t="s">
+      <c r="B466" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="C466" s="5" t="s">
+      <c r="C466" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="D466" s="17">
+      <c r="D466" s="16">
         <v>1910</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A467" s="5" t="s">
+      <c r="A467" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B467" s="5" t="s">
+      <c r="B467" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="C467" s="5" t="s">
+      <c r="C467" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="D467" s="17">
+      <c r="D467" s="16">
         <v>7800</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A468" s="5" t="s">
+      <c r="A468" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B468" s="5" t="s">
+      <c r="B468" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C468" s="5" t="s">
+      <c r="C468" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D468" s="17">
+      <c r="D468" s="16">
         <v>10500</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A469" s="5" t="s">
+      <c r="A469" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B469" s="5" t="s">
+      <c r="B469" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C469" s="5" t="s">
+      <c r="C469" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="D469" s="17">
+      <c r="D469" s="16">
         <v>520</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A470" s="5" t="s">
+      <c r="A470" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B470" s="5" t="s">
+      <c r="B470" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C470" s="5" t="s">
+      <c r="C470" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="D470" s="17">
+      <c r="D470" s="16">
         <v>2200</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A471" s="5" t="s">
+      <c r="A471" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B471" s="5" t="s">
+      <c r="B471" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="C471" s="5" t="s">
+      <c r="C471" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="D471" s="17">
+      <c r="D471" s="16">
         <v>4240</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A472" s="5" t="s">
+      <c r="A472" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B472" s="5" t="s">
+      <c r="B472" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="C472" s="5" t="s">
+      <c r="C472" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="D472" s="17">
+      <c r="D472" s="16">
         <v>1650</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A473" s="5" t="s">
+      <c r="A473" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B473" s="5" t="s">
+      <c r="B473" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="C473" s="5" t="s">
+      <c r="C473" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="D473" s="17">
+      <c r="D473" s="16">
         <v>1840</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A474" s="5" t="s">
+      <c r="A474" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B474" s="5" t="s">
+      <c r="B474" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="C474" s="5" t="s">
+      <c r="C474" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="D474" s="17">
+      <c r="D474" s="16">
         <v>3950</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A475" s="5" t="s">
+      <c r="A475" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B475" s="5" t="s">
+      <c r="B475" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="C475" s="5" t="s">
+      <c r="C475" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="D475" s="17">
+      <c r="D475" s="16">
         <v>11300</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476" s="5" t="s">
+      <c r="A476" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B476" s="5" t="s">
+      <c r="B476" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="C476" s="5" t="s">
+      <c r="C476" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="D476" s="17">
+      <c r="D476" s="16">
         <v>13700</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A477" s="5" t="s">
+      <c r="A477" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B477" s="5" t="s">
+      <c r="B477" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C477" s="5" t="s">
+      <c r="C477" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="D477" s="17">
+      <c r="D477" s="16">
         <v>4500</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A478" s="5" t="s">
+      <c r="A478" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B478" s="5" t="s">
+      <c r="B478" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C478" s="5" t="s">
+      <c r="C478" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="D478" s="17">
+      <c r="D478" s="16">
         <v>2100</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A479" s="5" t="s">
+      <c r="A479" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B479" s="5" t="s">
+      <c r="B479" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="C479" s="5" t="s">
+      <c r="C479" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="D479" s="17">
+      <c r="D479" s="16">
         <v>2500</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A480" s="5" t="s">
+      <c r="A480" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B480" s="5" t="s">
+      <c r="B480" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="C480" s="5" t="s">
+      <c r="C480" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="D480" s="17">
+      <c r="D480" s="16">
         <v>1600</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A481" s="5" t="s">
+      <c r="A481" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B481" s="5" t="s">
+      <c r="B481" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="C481" s="5" t="s">
+      <c r="C481" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="D481" s="17">
+      <c r="D481" s="16">
         <v>1498</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A482" s="5" t="s">
+      <c r="A482" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B482" s="5" t="s">
+      <c r="B482" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="C482" s="5" t="s">
+      <c r="C482" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="D482" s="17">
+      <c r="D482" s="16">
         <v>5000</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A483" s="5" t="s">
+      <c r="A483" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B483" s="5" t="s">
+      <c r="B483" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="C483" s="5" t="s">
+      <c r="C483" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="D483" s="17">
+      <c r="D483" s="16">
         <v>2300</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A484" s="5" t="s">
+      <c r="A484" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B484" s="5" t="s">
+      <c r="B484" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="C484" s="5" t="s">
+      <c r="C484" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="D484" s="17">
+      <c r="D484" s="16">
         <v>7276</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A485" s="5" t="s">
+      <c r="A485" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B485" s="5" t="s">
+      <c r="B485" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="C485" s="5" t="s">
+      <c r="C485" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="D485" s="17">
+      <c r="D485" s="16">
         <v>3638</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A486" s="5" t="s">
+      <c r="A486" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B486" s="5" t="s">
+      <c r="B486" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="C486" s="5" t="s">
+      <c r="C486" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="D486" s="17">
+      <c r="D486" s="16">
         <v>380</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A487" s="5" t="s">
+      <c r="A487" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B487" s="5" t="s">
+      <c r="B487" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="C487" s="5" t="s">
+      <c r="C487" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="D487" s="17">
+      <c r="D487" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A488" s="5" t="s">
+      <c r="A488" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B488" s="5" t="s">
+      <c r="B488" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="C488" s="5" t="s">
+      <c r="C488" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="D488" s="17">
+      <c r="D488" s="16">
         <v>195</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A489" s="5" t="s">
+      <c r="A489" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B489" s="5" t="s">
+      <c r="B489" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="C489" s="5" t="s">
+      <c r="C489" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="D489" s="17">
+      <c r="D489" s="16">
         <v>220</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A490" s="5" t="s">
+      <c r="A490" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B490" s="5" t="s">
+      <c r="B490" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="C490" s="5" t="s">
+      <c r="C490" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="D490" s="17">
+      <c r="D490" s="16">
         <v>720</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A491" s="5" t="s">
+      <c r="A491" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B491" s="5" t="s">
+      <c r="B491" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="C491" s="5" t="s">
+      <c r="C491" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="D491" s="17">
+      <c r="D491" s="16">
         <v>1250</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A492" s="5" t="s">
+      <c r="A492" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B492" s="5" t="s">
+      <c r="B492" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="C492" s="5" t="s">
+      <c r="C492" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="D492" s="17">
+      <c r="D492" s="16">
         <v>590</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A493" s="5" t="s">
+      <c r="A493" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B493" s="5" t="s">
+      <c r="B493" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C493" s="5" t="s">
+      <c r="C493" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="D493" s="17">
+      <c r="D493" s="16">
         <v>310</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A494" s="5" t="s">
+      <c r="A494" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B494" s="5" t="s">
+      <c r="B494" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C494" s="5" t="s">
+      <c r="C494" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="D494" s="17">
+      <c r="D494" s="16">
         <v>420</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A495" s="5" t="s">
+      <c r="A495" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B495" s="5" t="s">
+      <c r="B495" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="C495" s="5" t="s">
+      <c r="C495" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="D495" s="17">
+      <c r="D495" s="16">
         <v>90</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A496" s="5" t="s">
+      <c r="A496" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="B496" s="5" t="s">
+      <c r="B496" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="C496" s="5" t="s">
+      <c r="C496" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="D496" s="17">
+      <c r="D496" s="16">
         <v>145</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A497" s="5" t="s">
+      <c r="A497" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B497" s="5" t="s">
+      <c r="B497" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C497" s="5" t="s">
+      <c r="C497" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D497" s="17">
+      <c r="D497" s="16">
         <v>3278.1</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A498" s="5" t="s">
+      <c r="A498" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B498" s="5" t="s">
+      <c r="B498" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C498" s="5" t="s">
+      <c r="C498" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D498" s="17">
+      <c r="D498" s="16">
         <v>1966.3</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A499" s="5" t="s">
+      <c r="A499" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B499" s="5" t="s">
+      <c r="B499" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C499" s="5" t="s">
+      <c r="C499" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D499" s="17">
+      <c r="D499" s="16">
         <v>2621.5</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A500" s="5" t="s">
+      <c r="A500" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B500" s="5" t="s">
+      <c r="B500" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C500" s="5" t="s">
+      <c r="C500" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D500" s="17">
+      <c r="D500" s="16">
         <v>3639.3</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A501" s="5" t="s">
+      <c r="A501" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B501" s="5" t="s">
+      <c r="B501" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C501" s="5" t="s">
+      <c r="C501" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D501" s="17">
+      <c r="D501" s="16">
         <v>2851.1</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A502" s="5" t="s">
+      <c r="A502" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B502" s="5" t="s">
+      <c r="B502" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C502" s="5" t="s">
+      <c r="C502" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D502" s="17">
+      <c r="D502" s="16">
         <v>2647.4</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A503" s="5" t="s">
+      <c r="A503" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B503" s="5" t="s">
+      <c r="B503" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C503" s="5" t="s">
+      <c r="C503" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D503" s="17">
+      <c r="D503" s="16">
         <v>916.3</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A504" s="5" t="s">
+      <c r="A504" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B504" s="5" t="s">
+      <c r="B504" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C504" s="5" t="s">
+      <c r="C504" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D504" s="17">
+      <c r="D504" s="16">
         <v>1102.5</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A505" s="5" t="s">
+      <c r="A505" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B505" s="5" t="s">
+      <c r="B505" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C505" s="5" t="s">
+      <c r="C505" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D505" s="17">
+      <c r="D505" s="16">
         <v>88.199999999999989</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A506" s="5" t="s">
+      <c r="A506" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B506" s="5" t="s">
+      <c r="B506" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C506" s="5" t="s">
+      <c r="C506" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D506" s="17">
+      <c r="D506" s="16">
         <v>106.4</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A507" s="5" t="s">
+      <c r="A507" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B507" s="5" t="s">
+      <c r="B507" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C507" s="5" t="s">
+      <c r="C507" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D507" s="17">
+      <c r="D507" s="16">
         <v>752.5</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A508" s="5" t="s">
+      <c r="A508" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B508" s="5" t="s">
+      <c r="B508" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C508" s="5" t="s">
+      <c r="C508" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D508" s="17">
+      <c r="D508" s="16">
         <v>934.49999999999989</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A509" s="5" t="s">
+      <c r="A509" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B509" s="5" t="s">
+      <c r="B509" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C509" s="5" t="s">
+      <c r="C509" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D509" s="17">
+      <c r="D509" s="16">
         <v>768.59999999999991</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A510" s="5" t="s">
+      <c r="A510" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B510" s="5" t="s">
+      <c r="B510" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C510" s="5" t="s">
+      <c r="C510" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D510" s="17">
+      <c r="D510" s="16">
         <v>950.59999999999991</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A511" s="5" t="s">
+      <c r="A511" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B511" s="5" t="s">
+      <c r="B511" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C511" s="5" t="s">
+      <c r="C511" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D511" s="17">
+      <c r="D511" s="16">
         <v>4851.7</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A512" s="5" t="s">
+      <c r="A512" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B512" s="5" t="s">
+      <c r="B512" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C512" s="5" t="s">
+      <c r="C512" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D512" s="17">
+      <c r="D512" s="16">
         <v>3976.7</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A513" s="5" t="s">
+      <c r="A513" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B513" s="5" t="s">
+      <c r="B513" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C513" s="5" t="s">
+      <c r="C513" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D513" s="17">
+      <c r="D513" s="16">
         <v>4851.7</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A514" s="5" t="s">
+      <c r="A514" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B514" s="5" t="s">
+      <c r="B514" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C514" s="5" t="s">
+      <c r="C514" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D514" s="17">
+      <c r="D514" s="16">
         <v>3976.7</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A515" s="5" t="s">
+      <c r="A515" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B515" s="5" t="s">
+      <c r="B515" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C515" s="5" t="s">
+      <c r="C515" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D515" s="17">
+      <c r="D515" s="16">
         <v>918.4</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A516" s="5" t="s">
+      <c r="A516" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B516" s="5" t="s">
+      <c r="B516" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C516" s="5" t="s">
+      <c r="C516" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D516" s="17">
+      <c r="D516" s="16">
         <v>1533</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A517" s="5" t="s">
+      <c r="A517" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B517" s="5" t="s">
+      <c r="B517" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C517" s="5" t="s">
+      <c r="C517" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D517" s="17">
+      <c r="D517" s="16">
         <v>610.4</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A518" s="5" t="s">
+      <c r="A518" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B518" s="5" t="s">
+      <c r="B518" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C518" s="5" t="s">
+      <c r="C518" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D518" s="17">
+      <c r="D518" s="16">
         <v>610.4</v>
       </c>
     </row>
@@ -21914,7 +22464,7 @@
         <v>2166</v>
       </c>
       <c r="C931" s="3" t="str">
-        <f>CONCATENATE(A931," ",B931)</f>
+        <f t="shared" ref="C931:C942" si="0">CONCATENATE(A931," ",B931)</f>
         <v>SUMAY TELA RETRÁTIL 100″ 1:1</v>
       </c>
       <c r="D931" s="4">
@@ -21929,7 +22479,7 @@
         <v>2167</v>
       </c>
       <c r="C932" s="3" t="str">
-        <f>CONCATENATE(A932," ",B932)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 100″ 4:3</v>
       </c>
       <c r="D932" s="4">
@@ -21944,7 +22494,7 @@
         <v>2168</v>
       </c>
       <c r="C933" s="3" t="str">
-        <f>CONCATENATE(A933," ",B933)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 106″ 16:9</v>
       </c>
       <c r="D933" s="4">
@@ -21959,7 +22509,7 @@
         <v>2169</v>
       </c>
       <c r="C934" s="3" t="str">
-        <f>CONCATENATE(A934," ",B934)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 110″ 1:1</v>
       </c>
       <c r="D934" s="4">
@@ -21974,7 +22524,7 @@
         <v>2170</v>
       </c>
       <c r="C935" s="3" t="str">
-        <f>CONCATENATE(A935," ",B935)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 119″ 16:9</v>
       </c>
       <c r="D935" s="4">
@@ -21989,7 +22539,7 @@
         <v>2171</v>
       </c>
       <c r="C936" s="3" t="str">
-        <f>CONCATENATE(A936," ",B936)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 120″ 4:3</v>
       </c>
       <c r="D936" s="4">
@@ -22004,7 +22554,7 @@
         <v>2172</v>
       </c>
       <c r="C937" s="3" t="str">
-        <f>CONCATENATE(A937," ",B937)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 133″ 16:9</v>
       </c>
       <c r="D937" s="4">
@@ -22019,7 +22569,7 @@
         <v>2173</v>
       </c>
       <c r="C938" s="3" t="str">
-        <f>CONCATENATE(A938," ",B938)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 150″ 4:3</v>
       </c>
       <c r="D938" s="4">
@@ -22034,7 +22584,7 @@
         <v>2174</v>
       </c>
       <c r="C939" s="3" t="str">
-        <f>CONCATENATE(A939," ",B939)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 84″ 1:1</v>
       </c>
       <c r="D939" s="4">
@@ -22049,7 +22599,7 @@
         <v>2175</v>
       </c>
       <c r="C940" s="3" t="str">
-        <f>CONCATENATE(A940," ",B940)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 84″ 16:9</v>
       </c>
       <c r="D940" s="4">
@@ -22064,7 +22614,7 @@
         <v>2176</v>
       </c>
       <c r="C941" s="3" t="str">
-        <f>CONCATENATE(A941," ",B941)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 84″ 4:3</v>
       </c>
       <c r="D941" s="4">
@@ -22079,7 +22629,7 @@
         <v>2177</v>
       </c>
       <c r="C942" s="3" t="str">
-        <f>CONCATENATE(A942," ",B942)</f>
+        <f t="shared" si="0"/>
         <v>SUMAY TELA RETRÁTIL 92″ 16:9</v>
       </c>
       <c r="D942" s="4">
@@ -27824,6 +28374,132 @@
       </c>
       <c r="D1352" s="2">
         <v>5245.31</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" ht="342" x14ac:dyDescent="0.3">
+      <c r="A1353" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1353" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C1353" s="18" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D1353" s="2">
+        <v>999.9</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" ht="342" x14ac:dyDescent="0.3">
+      <c r="A1354" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1354" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C1354" s="18" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D1354" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1355" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C1355" s="18" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D1355" s="2">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1356" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1356" s="18" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C1356" s="18" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D1356" s="2">
+        <v>3776.67</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1357" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1357" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C1357" s="18" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D1357" s="2">
+        <v>3998.89</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1358" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1358" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C1358" s="18" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D1358" s="2">
+        <v>3332.22</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1359" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1359" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C1359" s="18" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D1359" s="2">
+        <v>2499.9</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1360" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1360" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C1360" s="18" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D1360" s="2">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1361" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1361" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C1361" s="18" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D1361" s="2">
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
